--- a/Rossi_GL_TCO_2021.xlsx
+++ b/Rossi_GL_TCO_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Giacomo\Universita\ISW2\TCO-Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A7F213-A8DA-41DE-89F4-E6D23B613A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622462E6-8F43-4E0E-A4DF-13EF2C876984}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="229">
   <si>
     <t>Components</t>
   </si>
@@ -752,6 +752,45 @@
   </si>
   <si>
     <t>Data Replication Tools - GoldenGate</t>
+  </si>
+  <si>
+    <t>Site 1</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Preproduction</t>
+  </si>
+  <si>
+    <t>Site2</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>Site 2</t>
+  </si>
+  <si>
+    <t>Spare</t>
+  </si>
+  <si>
+    <t>Allocated servers</t>
+  </si>
+  <si>
+    <t>Allocated cores</t>
+  </si>
+  <si>
+    <t>Spare cores</t>
+  </si>
+  <si>
+    <t>x86 TCO</t>
+  </si>
+  <si>
+    <t>LinuxONE TCO</t>
   </si>
 </sst>
 </file>
@@ -889,14 +928,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,12 +1006,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,7 +1304,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1699,21 +1733,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1741,6 +1760,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Collegamento ipertestuale" xfId="4" builtinId="8"/>
@@ -1890,10 +1911,10 @@
                 <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>504997.77999999997</c:v>
+                  <c:v>285847.79999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5544000</c:v>
+                  <c:v>3024000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1952,10 +1973,10 @@
                 <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>17586176</c:v>
+                  <c:v>9485264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19254240</c:v>
+                  <c:v>9637920</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,7 +2032,7 @@
                 <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1466666.6666666665</c:v>
+                  <c:v>833333.33333333326</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100000</c:v>
@@ -2188,10 +2209,10 @@
                 <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12344616.9</c:v>
+                  <c:v>6816646.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>336000</c:v>
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2548,19 +2569,19 @@
                 <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17866397.647999998</c:v>
+                  <c:v>9753705.8000000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21396109.495999999</c:v>
+                  <c:v>11682541.800000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24925821.344000001</c:v>
+                  <c:v>13611377.800000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28668806.232000001</c:v>
+                  <c:v>15659070.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32411791.120000001</c:v>
+                  <c:v>17706763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,19 +2661,19 @@
                 <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15883459.368421054</c:v>
+                  <c:v>8184809.6842105268</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17975014.736842107</c:v>
+                  <c:v>9250047.3684210535</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20066570.105263159</c:v>
+                  <c:v>10315285.052631579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22712973.47368421</c:v>
+                  <c:v>11678946.736842105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25359376.842105262</c:v>
+                  <c:v>13042608.421052631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,7 +3081,7 @@
                   <c:v>3683237.5466666664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3683237.5466666664</c:v>
+                  <c:v>3846831.5466666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3068,7 +3089,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5ED-41F8-AFE6-4C7EAD1BFD93}"/>
+              <c16:uniqueId val="{00000000-A014-4DB1-8B95-16DD3B1833DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3189,7 +3210,615 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5ED-41F8-AFE6-4C7EAD1BFD93}"/>
+              <c16:uniqueId val="{00000001-A014-4DB1-8B95-16DD3B1833DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="643919519"/>
+        <c:axId val="643911199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="643919519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>TPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643911199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643911199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>5 year</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> TCO</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0\ &quot;€&quot;" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643919519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>5 years TCO with TPS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1050"/>
+              <a:t>Large Workloads </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x86 TCO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPS and TCO'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPS and TCO'!$N$2:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6339896.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10082987.533333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13813078.266666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17706763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21462853.733333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25192944.466666669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29413817.199999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33156907.93333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB42-448D-A4E5-1B055AD63FF7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LinuxOne TCO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TPS and TCO'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TPS and TCO'!$O$2:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #.##0\ _€_-;\-* #.##0\ _€_-;_-* "-"\ _€_-;_-@_-</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4007511.5789473685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6884224.2105263155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10165895.789473685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13042608.421052631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16324280</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19200992.631578948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22482664.210526317</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25359376.842105262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB42-448D-A4E5-1B055AD63FF7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3592,6 +4221,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5142,6 +5811,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5224,26 +6396,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="6" name="Grafico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BA020B-2FFD-4666-8E47-ED7B2EA5AD2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D521D5-5C78-4F3C-AC51-F9EE4BCF9422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5252,6 +6426,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B09D3F-4FA7-4F68-A8A5-41C8087A7EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5564,18 +6776,18 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C2" s="156">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="D2" s="159">
         <f>'x86 TCO'!G5</f>
         <v>24</v>
       </c>
       <c r="E2" s="161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="158">
         <f>E4/D4</f>
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="H2" s="164"/>
       <c r="I2" s="162"/>
@@ -5654,22 +6866,22 @@
       </c>
       <c r="D4" s="119">
         <f>ROUNDUP($C$2/$C4,0)</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E4" s="44">
         <f>IF(E2*D2&gt;D4,D4,E2*D2)</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F4" s="135">
         <f>D4+E4</f>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="H4" s="157">
         <v>0.5</v>
       </c>
       <c r="I4" s="119">
         <f>ROUNDUP($D4*H4,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J4" s="157">
         <f>H4</f>
@@ -5677,46 +6889,46 @@
       </c>
       <c r="K4" s="119">
         <f>ROUNDUP($D4*J4,0)</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L4" s="157">
         <v>1</v>
       </c>
       <c r="M4" s="119">
         <f>ROUNDUP($D4*L4,0)</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N4" s="157">
         <v>1</v>
       </c>
       <c r="O4" s="119">
         <f>ROUNDUP(($F4+M4)*N4,0)</f>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="P4" s="115"/>
       <c r="R4" s="135">
         <f>F4+I4+K4+M4+O4</f>
-        <v>2048</v>
+        <v>1096</v>
       </c>
       <c r="S4" s="120">
         <f>R$4/R5</f>
-        <v>17.066666666666666</v>
+        <v>18.266666666666666</v>
       </c>
       <c r="T4" s="121">
         <f>F4+I4+K4+M4</f>
-        <v>1224</v>
+        <v>648</v>
       </c>
       <c r="U4" s="116">
         <f>T$4/T5</f>
-        <v>10.199999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="V4" s="121">
         <f>R4</f>
-        <v>2048</v>
+        <v>1096</v>
       </c>
       <c r="W4" s="116">
         <f>V$4/V5</f>
-        <v>10.24</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -5732,12 +6944,12 @@
       </c>
       <c r="D5" s="119">
         <f>ROUNDUP($C$2/$C5,0)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E5" s="115"/>
       <c r="F5" s="135">
         <f>D5+E5</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H5" s="157">
         <f>H4</f>
@@ -5745,7 +6957,7 @@
       </c>
       <c r="I5" s="126">
         <f>ROUNDUP($D5*H5,0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J5" s="157">
         <f>J4</f>
@@ -5753,32 +6965,32 @@
       </c>
       <c r="K5" s="126">
         <f>ROUNDUP($D5*J5,0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L5" s="157">
         <v>1</v>
       </c>
       <c r="M5" s="119">
         <f>ROUNDUP($D5*L5,0)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N5" s="115"/>
       <c r="O5" s="155"/>
       <c r="P5" s="119">
         <f>F5+M5</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R5" s="135">
         <f>F5+I5+K5+M5+O5</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="T5" s="121">
         <f>F5+I5+K5+M5</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="V5" s="121">
         <f>R5+P5</f>
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -5901,7 +7113,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -5924,20 +7136,20 @@
         <v>13</v>
       </c>
       <c r="B1" s="41"/>
-      <c r="R1" s="173" t="s">
+      <c r="R1" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="173" t="s">
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="175"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="170"/>
       <c r="AB1" s="1" t="s">
         <v>65</v>
       </c>
@@ -6476,14 +7688,14 @@
       <c r="B19" s="14"/>
       <c r="C19" s="10">
         <f>sizing!D4</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E19" s="92">
         <f>sizing!F4</f>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="F19" s="75">
         <f>$G$5</f>
@@ -6491,42 +7703,42 @@
       </c>
       <c r="G19" s="72">
         <f>ROUNDUP(E19/F19,0)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H19" s="76">
         <f>F19*G19</f>
-        <v>432</v>
+        <v>264</v>
       </c>
       <c r="I19" s="76">
         <f>H19-E19</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J19" s="77">
         <f>I19/H19</f>
-        <v>1.8518518518518517E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="K19" s="72">
         <f>ROUNDUP(E19/$I$5,0)</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>6</v>
       </c>
       <c r="O19" s="84">
         <f>G19</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P19" s="84">
         <f>K19</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="84">
         <f>E19</f>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="R19" s="52">
         <f>$O19*$C$5*(1-$F$5)</f>
-        <v>122506.2</v>
+        <v>74864.899999999994</v>
       </c>
       <c r="S19" s="52"/>
       <c r="T19" s="52"/>
@@ -6546,15 +7758,15 @@
       </c>
       <c r="Z19" s="52">
         <f t="shared" si="5"/>
-        <v>24501.24</v>
+        <v>14972.980000000001</v>
       </c>
       <c r="AA19" s="52">
         <f t="shared" si="5"/>
-        <v>24501.24</v>
+        <v>14972.980000000001</v>
       </c>
       <c r="AB19" s="56">
         <f>SUM(R19:AA19)</f>
-        <v>171508.68</v>
+        <v>104810.85999999999</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>6</v>
@@ -6571,7 +7783,7 @@
       </c>
       <c r="E20" s="92">
         <f>sizing!I4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="75">
         <f t="shared" ref="F20:F23" si="6">$G$5</f>
@@ -6579,42 +7791,42 @@
       </c>
       <c r="G20" s="72">
         <f t="shared" ref="G20:G22" si="7">ROUNDUP(E20/F20,0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H20" s="76">
         <f t="shared" ref="H20:H23" si="8">F20*G20</f>
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="I20" s="76">
         <f t="shared" ref="I20:I23" si="9">H20-E20</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J20" s="77">
         <f t="shared" ref="J20:J24" si="10">I20/H20</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K20" s="72">
         <f t="shared" ref="K20:K23" si="11">ROUNDUP(E20/$I$5,0)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>7</v>
       </c>
       <c r="O20" s="84">
         <f t="shared" ref="O20:O23" si="12">G20</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P20" s="84">
         <f t="shared" ref="P20:P23" si="13">K20</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="84">
         <f t="shared" ref="Q20:Q23" si="14">E20</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R20" s="19">
         <f>$O20*$C$5*(1-$F$5)</f>
-        <v>61253.1</v>
+        <v>34029.5</v>
       </c>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
@@ -6634,15 +7846,15 @@
       </c>
       <c r="Z20" s="19">
         <f t="shared" si="5"/>
-        <v>12250.62</v>
+        <v>6805.9000000000005</v>
       </c>
       <c r="AA20" s="19">
         <f t="shared" si="5"/>
-        <v>12250.62</v>
+        <v>6805.9000000000005</v>
       </c>
       <c r="AB20" s="20">
         <f>SUM(R20:AA20)</f>
-        <v>85754.34</v>
+        <v>47641.3</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>7</v>
@@ -6659,7 +7871,7 @@
       </c>
       <c r="E21" s="92">
         <f>sizing!K4</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F21" s="75">
         <f t="shared" si="6"/>
@@ -6667,42 +7879,42 @@
       </c>
       <c r="G21" s="72">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H21" s="76">
         <f t="shared" si="8"/>
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="I21" s="76">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J21" s="77">
         <f t="shared" si="10"/>
-        <v>7.407407407407407E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K21" s="72">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="84">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P21" s="84">
         <f t="shared" si="13"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="84">
         <f t="shared" si="14"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R21" s="19">
         <f>$O21*$C$5*(1-$F$5)</f>
-        <v>61253.1</v>
+        <v>34029.5</v>
       </c>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
@@ -6722,15 +7934,15 @@
       </c>
       <c r="Z21" s="19">
         <f t="shared" si="5"/>
-        <v>12250.62</v>
+        <v>6805.9000000000005</v>
       </c>
       <c r="AA21" s="19">
         <f t="shared" si="5"/>
-        <v>12250.62</v>
+        <v>6805.9000000000005</v>
       </c>
       <c r="AB21" s="20">
         <f>SUM(R21:AA21)</f>
-        <v>85754.34</v>
+        <v>47641.3</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>8</v>
@@ -6747,7 +7959,7 @@
       </c>
       <c r="E22" s="92">
         <f>sizing!M4</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F22" s="75">
         <f t="shared" si="6"/>
@@ -6755,42 +7967,42 @@
       </c>
       <c r="G22" s="72">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H22" s="76">
         <f t="shared" si="8"/>
-        <v>408</v>
+        <v>216</v>
       </c>
       <c r="I22" s="76">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J22" s="77">
         <f t="shared" si="10"/>
-        <v>1.9607843137254902E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="K22" s="72">
         <f t="shared" si="11"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>131</v>
       </c>
       <c r="O22" s="84">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P22" s="84">
         <f t="shared" si="13"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="84">
         <f t="shared" si="14"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R22" s="19">
         <f>$O22*$C$5*(1-$F$5)</f>
-        <v>115700.29999999999</v>
+        <v>61253.1</v>
       </c>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
@@ -6810,15 +8022,15 @@
       </c>
       <c r="Z22" s="19">
         <f t="shared" si="5"/>
-        <v>23140.06</v>
+        <v>12250.62</v>
       </c>
       <c r="AA22" s="19">
         <f t="shared" si="5"/>
-        <v>23140.06</v>
+        <v>12250.62</v>
       </c>
       <c r="AB22" s="20">
         <f>SUM(R22:AA22)</f>
-        <v>161980.41999999998</v>
+        <v>85754.34</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>9</v>
@@ -6836,7 +8048,7 @@
       </c>
       <c r="E23" s="92">
         <f>sizing!O4</f>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="F23" s="75">
         <f t="shared" si="6"/>
@@ -6844,42 +8056,42 @@
       </c>
       <c r="G23" s="72">
         <f>G19+G22</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H23" s="76">
         <f t="shared" si="8"/>
-        <v>840</v>
+        <v>480</v>
       </c>
       <c r="I23" s="76">
         <f t="shared" si="9"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J23" s="77">
         <f t="shared" si="10"/>
-        <v>1.9047619047619049E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K23" s="72">
         <f t="shared" si="11"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="N23" s="14" t="s">
         <v>10</v>
       </c>
       <c r="O23" s="84">
         <f t="shared" si="12"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P23" s="84">
         <f t="shared" si="13"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="84">
         <f t="shared" si="14"/>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="R23" s="19">
         <f>$O23*$C$5*(1-$F$5)</f>
-        <v>238206.5</v>
+        <v>136118</v>
       </c>
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
@@ -6899,15 +8111,15 @@
       </c>
       <c r="Z23" s="19">
         <f t="shared" si="5"/>
-        <v>47641.3</v>
+        <v>27223.600000000002</v>
       </c>
       <c r="AA23" s="19">
         <f t="shared" si="5"/>
-        <v>47641.3</v>
+        <v>27223.600000000002</v>
       </c>
       <c r="AB23" s="20">
         <f>SUM(R23:AA23)</f>
-        <v>333489.09999999998</v>
+        <v>190565.2</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>10</v>
@@ -6922,45 +8134,45 @@
       <c r="D24" s="93"/>
       <c r="E24" s="78">
         <f>SUM(E19:E23)</f>
-        <v>2048</v>
+        <v>1096</v>
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="80">
         <f>SUM(G19:G23)</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H24" s="81">
         <f>SUM(H19:H23)</f>
-        <v>2112</v>
+        <v>1200</v>
       </c>
       <c r="I24" s="81">
         <f>SUM(I19:I23)</f>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="J24" s="82">
         <f t="shared" si="10"/>
-        <v>3.0303030303030304E-2</v>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="K24" s="80">
         <f>SUM(K19:K23)</f>
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="50">
         <f>SUM(O19:O23)</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="P24" s="50">
         <f>SUM(P19:P23)</f>
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="50">
         <f>SUM(Q19:Q23)</f>
-        <v>2048</v>
+        <v>1096</v>
       </c>
       <c r="R24" s="71">
         <f t="shared" ref="R24:AB24" si="15">SUM(R19:R23)</f>
-        <v>598919.19999999995</v>
+        <v>340295</v>
       </c>
       <c r="S24" s="71">
         <f t="shared" si="15"/>
@@ -6992,15 +8204,15 @@
       </c>
       <c r="Z24" s="71">
         <f t="shared" si="15"/>
-        <v>119783.84000000001</v>
+        <v>68059</v>
       </c>
       <c r="AA24" s="71">
         <f t="shared" si="15"/>
-        <v>119783.84000000001</v>
+        <v>68059</v>
       </c>
       <c r="AB24" s="71">
         <f t="shared" si="15"/>
-        <v>838486.87999999989</v>
+        <v>476412.99999999994</v>
       </c>
       <c r="AC24" s="5" t="s">
         <v>19</v>
@@ -7142,30 +8354,30 @@
       </c>
       <c r="J28" s="36">
         <f>$O$19</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K28" s="36">
         <f>$P$19</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L28" s="36">
         <f>$Q$19</f>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="O28">
         <f>_xlfn.XLOOKUP($H28,$J$27:$L$27,$J28:$L28)</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="86">
         <f>I28*O28</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R28" s="19">
         <f>$Q28*$C28*(1-$F28)</f>
-        <v>97272</v>
+        <v>56742</v>
       </c>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
@@ -7185,15 +8397,15 @@
       </c>
       <c r="Z28" s="19">
         <f>IF(Z$18&lt;$E28,0,$Q28*$D28)*(1-$F28)</f>
-        <v>19454.399999999998</v>
+        <v>11348.4</v>
       </c>
       <c r="AA28" s="19">
         <f>IF(AA$18&lt;$E28,0,$Q28*$D28)*(1-$F28)</f>
-        <v>19454.399999999998</v>
+        <v>11348.4</v>
       </c>
       <c r="AB28" s="20">
         <f>SUM(R28:AA28)</f>
-        <v>136180.79999999999</v>
+        <v>79438.799999999988</v>
       </c>
     </row>
     <row r="29" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -7225,30 +8437,30 @@
       </c>
       <c r="J29" s="1">
         <f>J28</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" ref="K29:L29" si="16">K28</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="16"/>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="O29">
         <f t="shared" ref="O29:O34" si="17">_xlfn.XLOOKUP($H29,$J$27:$L$27,$J29:$L29)</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q29" s="86">
         <f t="shared" ref="Q29:Q34" si="18">I29*O29</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R29" s="19">
         <f t="shared" ref="R29:R34" si="19">$Q29*$C29*(1-$F29)</f>
-        <v>38340</v>
+        <v>22365</v>
       </c>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
@@ -7260,23 +8472,23 @@
       </c>
       <c r="X29" s="19">
         <f t="shared" si="20"/>
-        <v>7668</v>
+        <v>4473</v>
       </c>
       <c r="Y29" s="19">
         <f t="shared" si="20"/>
-        <v>7668</v>
+        <v>4473</v>
       </c>
       <c r="Z29" s="19">
         <f t="shared" si="20"/>
-        <v>7668</v>
+        <v>4473</v>
       </c>
       <c r="AA29" s="19">
         <f t="shared" si="20"/>
-        <v>7668</v>
+        <v>4473</v>
       </c>
       <c r="AB29" s="20">
         <f t="shared" ref="AB29:AB30" si="21">SUM(R29:AA29)</f>
-        <v>69012</v>
+        <v>40257</v>
       </c>
     </row>
     <row r="30" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -7308,30 +8520,30 @@
       </c>
       <c r="J30" s="1">
         <f t="shared" ref="J30:J34" si="22">J29</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" ref="K30:K34" si="23">K29</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" ref="L30:L34" si="24">L29</f>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="O30">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P30" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q30" s="86">
         <f t="shared" si="18"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R30" s="19">
         <f t="shared" si="19"/>
-        <v>1073880</v>
+        <v>626430</v>
       </c>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
@@ -7343,23 +8555,23 @@
       </c>
       <c r="X30" s="19">
         <f t="shared" si="20"/>
-        <v>214776</v>
+        <v>125286</v>
       </c>
       <c r="Y30" s="19">
         <f t="shared" si="20"/>
-        <v>214776</v>
+        <v>125286</v>
       </c>
       <c r="Z30" s="19">
         <f t="shared" si="20"/>
-        <v>214776</v>
+        <v>125286</v>
       </c>
       <c r="AA30" s="19">
         <f t="shared" si="20"/>
-        <v>214776</v>
+        <v>125286</v>
       </c>
       <c r="AB30" s="20">
         <f t="shared" si="21"/>
-        <v>1932984</v>
+        <v>1127574</v>
       </c>
     </row>
     <row r="31" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -7391,30 +8603,30 @@
       </c>
       <c r="J31" s="1">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="23"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="24"/>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="O31">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P31" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q31" s="86">
         <f>I31*O31</f>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R31" s="19">
         <f t="shared" si="19"/>
-        <v>1457604</v>
+        <v>850269</v>
       </c>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
@@ -7426,23 +8638,23 @@
       </c>
       <c r="X31" s="19">
         <f t="shared" si="20"/>
-        <v>291520.8</v>
+        <v>170053.80000000002</v>
       </c>
       <c r="Y31" s="19">
         <f t="shared" si="20"/>
-        <v>291520.8</v>
+        <v>170053.80000000002</v>
       </c>
       <c r="Z31" s="19">
         <f t="shared" si="20"/>
-        <v>291520.8</v>
+        <v>170053.80000000002</v>
       </c>
       <c r="AA31" s="19">
         <f t="shared" si="20"/>
-        <v>291520.8</v>
+        <v>170053.80000000002</v>
       </c>
       <c r="AB31" s="20">
         <f>SUM(R31:AA31)</f>
-        <v>2623687.1999999997</v>
+        <v>1530484.2000000002</v>
       </c>
     </row>
     <row r="32" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -7473,30 +8685,30 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="23"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="24"/>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="O32">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q32" s="86">
         <f t="shared" si="18"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="R32" s="19">
         <f t="shared" si="19"/>
-        <v>536940</v>
+        <v>313215</v>
       </c>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
@@ -7504,27 +8716,27 @@
       <c r="V32" s="19"/>
       <c r="W32" s="19">
         <f t="shared" si="20"/>
-        <v>118116</v>
+        <v>68901</v>
       </c>
       <c r="X32" s="19">
         <f t="shared" si="20"/>
-        <v>118116</v>
+        <v>68901</v>
       </c>
       <c r="Y32" s="19">
         <f t="shared" si="20"/>
-        <v>118116</v>
+        <v>68901</v>
       </c>
       <c r="Z32" s="19">
         <f t="shared" si="20"/>
-        <v>118116</v>
+        <v>68901</v>
       </c>
       <c r="AA32" s="19">
         <f t="shared" si="20"/>
-        <v>118116</v>
+        <v>68901</v>
       </c>
       <c r="AB32" s="20">
         <f>SUM(R32:AA32)</f>
-        <v>1127520</v>
+        <v>657720</v>
       </c>
     </row>
     <row r="33" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -7556,30 +8768,30 @@
       </c>
       <c r="J33" s="1">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="23"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="24"/>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="O33">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q33" s="86">
         <f t="shared" si="18"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="R33" s="19">
         <f t="shared" si="19"/>
-        <v>54000</v>
+        <v>33000</v>
       </c>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
@@ -7591,23 +8803,23 @@
       </c>
       <c r="X33" s="19">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>6600</v>
       </c>
       <c r="Y33" s="19">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>6600</v>
       </c>
       <c r="Z33" s="19">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>6600</v>
       </c>
       <c r="AA33" s="19">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>6600</v>
       </c>
       <c r="AB33" s="20">
         <f t="shared" ref="AB33:AB34" si="25">SUM(R33:AA33)</f>
-        <v>97200</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="34" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -7639,30 +8851,30 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="23"/>
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="24"/>
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="O34">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q34" s="86">
         <f t="shared" si="18"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="R34" s="19">
         <f t="shared" si="19"/>
-        <v>54000</v>
+        <v>33000</v>
       </c>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
@@ -7674,23 +8886,23 @@
       </c>
       <c r="X34" s="19">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>6600</v>
       </c>
       <c r="Y34" s="19">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>6600</v>
       </c>
       <c r="Z34" s="19">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>6600</v>
       </c>
       <c r="AA34" s="19">
         <f t="shared" si="20"/>
-        <v>10800</v>
+        <v>6600</v>
       </c>
       <c r="AB34" s="20">
         <f t="shared" si="25"/>
-        <v>97200</v>
+        <v>59400</v>
       </c>
     </row>
     <row r="35" spans="1:29" s="39" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -7705,7 +8917,7 @@
       </c>
       <c r="R35" s="61">
         <f>SUM(R28:R34)</f>
-        <v>3312036</v>
+        <v>1935021</v>
       </c>
       <c r="S35" s="61">
         <f t="shared" ref="S35:AB35" si="26">SUM(S28:S34)</f>
@@ -7725,27 +8937,27 @@
       </c>
       <c r="W35" s="61">
         <f t="shared" si="26"/>
-        <v>118116</v>
+        <v>68901</v>
       </c>
       <c r="X35" s="61">
         <f t="shared" si="26"/>
-        <v>653680.80000000005</v>
+        <v>381913.80000000005</v>
       </c>
       <c r="Y35" s="61">
         <f t="shared" si="26"/>
-        <v>653680.80000000005</v>
+        <v>381913.80000000005</v>
       </c>
       <c r="Z35" s="61">
         <f t="shared" si="26"/>
-        <v>673135.2</v>
+        <v>393262.2</v>
       </c>
       <c r="AA35" s="61">
         <f t="shared" si="26"/>
-        <v>673135.2</v>
+        <v>393262.2</v>
       </c>
       <c r="AB35" s="62">
         <f t="shared" si="26"/>
-        <v>6083784</v>
+        <v>3554274</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7868,30 +9080,30 @@
       </c>
       <c r="J38" s="36">
         <f>$O$20</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K38" s="36">
         <f>$P$20</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L38" s="36">
         <f>$Q$20</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O38">
         <f>_xlfn.XLOOKUP($H38,$J$27:$L$27,$J38:$L38)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q38" s="86">
         <f>I38*O38</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R38" s="19">
         <f t="shared" ref="R38:R44" si="29">$Q38*$C38*(1-$F38)</f>
-        <v>45934</v>
+        <v>24318</v>
       </c>
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
@@ -7911,15 +9123,15 @@
       </c>
       <c r="Z38" s="19">
         <f t="shared" si="30"/>
-        <v>9186.7999999999993</v>
+        <v>4863.5999999999995</v>
       </c>
       <c r="AA38" s="19">
         <f t="shared" si="30"/>
-        <v>9186.7999999999993</v>
+        <v>4863.5999999999995</v>
       </c>
       <c r="AB38" s="20">
         <f>SUM(R38:AA38)</f>
-        <v>64307.600000000006</v>
+        <v>34045.199999999997</v>
       </c>
     </row>
     <row r="39" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -7958,30 +9170,30 @@
       </c>
       <c r="J39" s="1">
         <f>J38</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K39" s="1">
         <f t="shared" ref="K39:K44" si="33">K38</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" ref="L39:L44" si="34">L38</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O39">
         <f t="shared" ref="O39:O44" si="35">_xlfn.XLOOKUP($H39,$J$27:$L$27,$J39:$L39)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P39" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q39" s="86">
         <f t="shared" ref="Q39:Q44" si="36">I39*O39</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R39" s="19">
         <f t="shared" si="29"/>
-        <v>18105</v>
+        <v>9585</v>
       </c>
       <c r="S39" s="19"/>
       <c r="T39" s="19"/>
@@ -7993,23 +9205,23 @@
       </c>
       <c r="X39" s="19">
         <f t="shared" si="30"/>
-        <v>3621</v>
+        <v>1917</v>
       </c>
       <c r="Y39" s="19">
         <f t="shared" si="30"/>
-        <v>3621</v>
+        <v>1917</v>
       </c>
       <c r="Z39" s="19">
         <f t="shared" si="30"/>
-        <v>3621</v>
+        <v>1917</v>
       </c>
       <c r="AA39" s="19">
         <f t="shared" si="30"/>
-        <v>3621</v>
+        <v>1917</v>
       </c>
       <c r="AB39" s="20">
         <f t="shared" ref="AB39:AB40" si="37">SUM(R39:AA39)</f>
-        <v>32589</v>
+        <v>17253</v>
       </c>
     </row>
     <row r="40" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8048,30 +9260,30 @@
       </c>
       <c r="J40" s="1">
         <f t="shared" ref="J40:J44" si="38">J39</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="33"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="34"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O40">
         <f t="shared" si="35"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P40" s="10" t="s">
         <v>94</v>
       </c>
       <c r="Q40" s="86">
         <f t="shared" si="36"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" si="29"/>
-        <v>507110</v>
+        <v>268470</v>
       </c>
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
@@ -8083,23 +9295,23 @@
       </c>
       <c r="X40" s="19">
         <f t="shared" si="30"/>
-        <v>101422</v>
+        <v>53694</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" si="30"/>
-        <v>101422</v>
+        <v>53694</v>
       </c>
       <c r="Z40" s="19">
         <f t="shared" si="30"/>
-        <v>101422</v>
+        <v>53694</v>
       </c>
       <c r="AA40" s="19">
         <f t="shared" si="30"/>
-        <v>101422</v>
+        <v>53694</v>
       </c>
       <c r="AB40" s="20">
         <f t="shared" si="37"/>
-        <v>912798</v>
+        <v>483246</v>
       </c>
     </row>
     <row r="41" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8138,30 +9350,30 @@
       </c>
       <c r="J41" s="1">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="33"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="34"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41">
         <f t="shared" si="35"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P41" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q41" s="86">
         <f t="shared" si="36"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R41" s="19">
         <f t="shared" si="29"/>
-        <v>688313</v>
+        <v>364401</v>
       </c>
       <c r="S41" s="19"/>
       <c r="T41" s="19"/>
@@ -8173,23 +9385,23 @@
       </c>
       <c r="X41" s="19">
         <f t="shared" si="30"/>
-        <v>137662.6</v>
+        <v>72880.2</v>
       </c>
       <c r="Y41" s="19">
         <f t="shared" si="30"/>
-        <v>137662.6</v>
+        <v>72880.2</v>
       </c>
       <c r="Z41" s="19">
         <f t="shared" si="30"/>
-        <v>137662.6</v>
+        <v>72880.2</v>
       </c>
       <c r="AA41" s="19">
         <f t="shared" si="30"/>
-        <v>137662.6</v>
+        <v>72880.2</v>
       </c>
       <c r="AB41" s="20">
         <f>SUM(R41:AA41)</f>
-        <v>1238963.4000000001</v>
+        <v>655921.79999999993</v>
       </c>
     </row>
     <row r="42" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8228,30 +9440,30 @@
       </c>
       <c r="J42" s="1">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="33"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="34"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O42">
         <f t="shared" si="35"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P42" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q42" s="86">
         <f t="shared" si="36"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R42" s="19">
         <f t="shared" si="29"/>
-        <v>253555</v>
+        <v>134235</v>
       </c>
       <c r="S42" s="19"/>
       <c r="T42" s="19"/>
@@ -8259,27 +9471,27 @@
       <c r="V42" s="19"/>
       <c r="W42" s="19">
         <f t="shared" si="30"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="X42" s="19">
         <f t="shared" si="30"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="Y42" s="19">
         <f t="shared" si="30"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="Z42" s="19">
         <f t="shared" si="30"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="AA42" s="19">
         <f t="shared" si="30"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="AB42" s="20">
         <f>SUM(R42:AA42)</f>
-        <v>532440</v>
+        <v>281880</v>
       </c>
     </row>
     <row r="43" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8318,30 +9530,30 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="33"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="34"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43">
         <f t="shared" si="35"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P43" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q43" s="86">
         <f t="shared" si="36"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R43" s="19">
         <f t="shared" si="29"/>
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="S43" s="19"/>
       <c r="T43" s="19"/>
@@ -8353,23 +9565,23 @@
       </c>
       <c r="X43" s="19">
         <f t="shared" si="30"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="Y43" s="19">
         <f t="shared" si="30"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="Z43" s="19">
         <f t="shared" si="30"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="AA43" s="19">
         <f t="shared" si="30"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="AB43" s="20">
         <f t="shared" ref="AB43:AB44" si="39">SUM(R43:AA43)</f>
-        <v>48600</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="44" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8408,30 +9620,30 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" si="38"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="33"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="34"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44">
         <f t="shared" si="35"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q44" s="86">
         <f t="shared" si="36"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R44" s="19">
         <f t="shared" si="29"/>
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="S44" s="19"/>
       <c r="T44" s="19"/>
@@ -8443,23 +9655,23 @@
       </c>
       <c r="X44" s="19">
         <f t="shared" si="30"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="Y44" s="19">
         <f t="shared" si="30"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="Z44" s="19">
         <f t="shared" si="30"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="AA44" s="19">
         <f t="shared" si="30"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="AB44" s="20">
         <f t="shared" si="39"/>
-        <v>48600</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="45" spans="1:29" s="39" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -8468,7 +9680,7 @@
       </c>
       <c r="R45" s="61">
         <f>SUM(R38:R44)</f>
-        <v>1567017</v>
+        <v>831009</v>
       </c>
       <c r="S45" s="61">
         <f t="shared" ref="S45" si="40">SUM(S38:S44)</f>
@@ -8488,27 +9700,27 @@
       </c>
       <c r="W45" s="61">
         <f t="shared" ref="W45" si="44">SUM(W38:W44)</f>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="X45" s="61">
         <f t="shared" ref="X45" si="45">SUM(X38:X44)</f>
-        <v>309282.59999999998</v>
+        <v>164020.20000000001</v>
       </c>
       <c r="Y45" s="61">
         <f t="shared" ref="Y45" si="46">SUM(Y38:Y44)</f>
-        <v>309282.59999999998</v>
+        <v>164020.20000000001</v>
       </c>
       <c r="Z45" s="61">
         <f t="shared" ref="Z45" si="47">SUM(Z38:Z44)</f>
-        <v>318469.40000000002</v>
+        <v>168883.8</v>
       </c>
       <c r="AA45" s="61">
         <f t="shared" ref="AA45" si="48">SUM(AA38:AA44)</f>
-        <v>318469.40000000002</v>
+        <v>168883.8</v>
       </c>
       <c r="AB45" s="62">
         <f t="shared" ref="AB45" si="49">SUM(AB38:AB44)</f>
-        <v>2878298</v>
+        <v>1526346</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -8627,30 +9839,30 @@
       </c>
       <c r="J48" s="36">
         <f>$O$21</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K48" s="36">
         <f>$P$21</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L48" s="36">
         <f>$Q$21</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48">
         <f>_xlfn.XLOOKUP($H48,$J$27:$L$27,$J48:$L48)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q48" s="86">
         <f>I48*O48</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R48" s="19">
         <f t="shared" ref="R48:R54" si="52">$Q48*$C48*(1-$F48)</f>
-        <v>45934</v>
+        <v>24318</v>
       </c>
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
@@ -8670,15 +9882,15 @@
       </c>
       <c r="Z48" s="19">
         <f t="shared" si="53"/>
-        <v>9186.7999999999993</v>
+        <v>4863.5999999999995</v>
       </c>
       <c r="AA48" s="19">
         <f t="shared" si="53"/>
-        <v>9186.7999999999993</v>
+        <v>4863.5999999999995</v>
       </c>
       <c r="AB48" s="20">
         <f>SUM(R48:AA48)</f>
-        <v>64307.600000000006</v>
+        <v>34045.199999999997</v>
       </c>
     </row>
     <row r="49" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8717,30 +9929,30 @@
       </c>
       <c r="J49" s="1">
         <f>J48</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" ref="K49:K54" si="55">K48</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" ref="L49:L54" si="56">L48</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O49">
         <f t="shared" ref="O49:O54" si="57">_xlfn.XLOOKUP($H49,$J$27:$L$27,$J49:$L49)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P49" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q49" s="86">
         <f t="shared" ref="Q49:Q54" si="58">I49*O49</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R49" s="19">
         <f t="shared" si="52"/>
-        <v>18105</v>
+        <v>9585</v>
       </c>
       <c r="S49" s="19"/>
       <c r="T49" s="19"/>
@@ -8752,23 +9964,23 @@
       </c>
       <c r="X49" s="19">
         <f t="shared" si="53"/>
-        <v>3621</v>
+        <v>1917</v>
       </c>
       <c r="Y49" s="19">
         <f t="shared" si="53"/>
-        <v>3621</v>
+        <v>1917</v>
       </c>
       <c r="Z49" s="19">
         <f t="shared" si="53"/>
-        <v>3621</v>
+        <v>1917</v>
       </c>
       <c r="AA49" s="19">
         <f t="shared" si="53"/>
-        <v>3621</v>
+        <v>1917</v>
       </c>
       <c r="AB49" s="20">
         <f t="shared" ref="AB49:AB50" si="59">SUM(R49:AA49)</f>
-        <v>32589</v>
+        <v>17253</v>
       </c>
     </row>
     <row r="50" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8807,30 +10019,30 @@
       </c>
       <c r="J50" s="1">
         <f t="shared" ref="J50:J54" si="61">J49</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="55"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="56"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O50">
         <f t="shared" si="57"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P50" s="10" t="s">
         <v>94</v>
       </c>
       <c r="Q50" s="86">
         <f t="shared" si="58"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R50" s="19">
         <f t="shared" si="52"/>
-        <v>507110</v>
+        <v>268470</v>
       </c>
       <c r="S50" s="19"/>
       <c r="T50" s="19"/>
@@ -8842,23 +10054,23 @@
       </c>
       <c r="X50" s="19">
         <f t="shared" si="53"/>
-        <v>101422</v>
+        <v>53694</v>
       </c>
       <c r="Y50" s="19">
         <f t="shared" si="53"/>
-        <v>101422</v>
+        <v>53694</v>
       </c>
       <c r="Z50" s="19">
         <f t="shared" si="53"/>
-        <v>101422</v>
+        <v>53694</v>
       </c>
       <c r="AA50" s="19">
         <f t="shared" si="53"/>
-        <v>101422</v>
+        <v>53694</v>
       </c>
       <c r="AB50" s="20">
         <f t="shared" si="59"/>
-        <v>912798</v>
+        <v>483246</v>
       </c>
     </row>
     <row r="51" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8897,30 +10109,30 @@
       </c>
       <c r="J51" s="1">
         <f t="shared" si="61"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="55"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="56"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O51">
         <f t="shared" si="57"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P51" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q51" s="86">
         <f t="shared" si="58"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R51" s="19">
         <f t="shared" si="52"/>
-        <v>688313</v>
+        <v>364401</v>
       </c>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
@@ -8932,23 +10144,23 @@
       </c>
       <c r="X51" s="19">
         <f t="shared" si="53"/>
-        <v>137662.6</v>
+        <v>72880.2</v>
       </c>
       <c r="Y51" s="19">
         <f t="shared" si="53"/>
-        <v>137662.6</v>
+        <v>72880.2</v>
       </c>
       <c r="Z51" s="19">
         <f t="shared" si="53"/>
-        <v>137662.6</v>
+        <v>72880.2</v>
       </c>
       <c r="AA51" s="19">
         <f t="shared" si="53"/>
-        <v>137662.6</v>
+        <v>72880.2</v>
       </c>
       <c r="AB51" s="20">
         <f>SUM(R51:AA51)</f>
-        <v>1238963.4000000001</v>
+        <v>655921.79999999993</v>
       </c>
     </row>
     <row r="52" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -8987,30 +10199,30 @@
       </c>
       <c r="J52" s="1">
         <f t="shared" si="61"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="55"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="56"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O52">
         <f t="shared" si="57"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P52" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q52" s="86">
         <f t="shared" si="58"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R52" s="19">
         <f t="shared" si="52"/>
-        <v>253555</v>
+        <v>134235</v>
       </c>
       <c r="S52" s="19"/>
       <c r="T52" s="19"/>
@@ -9018,27 +10230,27 @@
       <c r="V52" s="19"/>
       <c r="W52" s="19">
         <f t="shared" si="53"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="X52" s="19">
         <f t="shared" si="53"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="Y52" s="19">
         <f t="shared" si="53"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="Z52" s="19">
         <f t="shared" si="53"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="AA52" s="19">
         <f t="shared" si="53"/>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="AB52" s="20">
         <f>SUM(R52:AA52)</f>
-        <v>532440</v>
+        <v>281880</v>
       </c>
     </row>
     <row r="53" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -9077,30 +10289,30 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" si="61"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="55"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="56"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O53">
         <f t="shared" si="57"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P53" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q53" s="86">
         <f t="shared" si="58"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R53" s="19">
         <f t="shared" si="52"/>
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="S53" s="19"/>
       <c r="T53" s="19"/>
@@ -9112,23 +10324,23 @@
       </c>
       <c r="X53" s="19">
         <f t="shared" si="53"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="Y53" s="19">
         <f t="shared" si="53"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="Z53" s="19">
         <f t="shared" si="53"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="AA53" s="19">
         <f t="shared" si="53"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="AB53" s="20">
         <f t="shared" ref="AB53:AB54" si="65">SUM(R53:AA53)</f>
-        <v>48600</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="54" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -9167,30 +10379,30 @@
       </c>
       <c r="J54" s="1">
         <f t="shared" si="61"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="55"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="56"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O54">
         <f t="shared" si="57"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q54" s="86">
         <f t="shared" si="58"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R54" s="19">
         <f t="shared" si="52"/>
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="S54" s="19"/>
       <c r="T54" s="19"/>
@@ -9202,23 +10414,23 @@
       </c>
       <c r="X54" s="19">
         <f t="shared" si="53"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="Y54" s="19">
         <f t="shared" si="53"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="Z54" s="19">
         <f t="shared" si="53"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="AA54" s="19">
         <f t="shared" si="53"/>
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="AB54" s="20">
         <f t="shared" si="65"/>
-        <v>48600</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="55" spans="1:29" s="39" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -9227,7 +10439,7 @@
       </c>
       <c r="R55" s="61">
         <f>SUM(R48:R54)</f>
-        <v>1567017</v>
+        <v>831009</v>
       </c>
       <c r="S55" s="61">
         <f t="shared" ref="S55" si="67">SUM(S48:S54)</f>
@@ -9247,27 +10459,27 @@
       </c>
       <c r="W55" s="61">
         <f t="shared" ref="W55" si="71">SUM(W48:W54)</f>
-        <v>55777</v>
+        <v>29529</v>
       </c>
       <c r="X55" s="61">
         <f t="shared" ref="X55" si="72">SUM(X48:X54)</f>
-        <v>309282.59999999998</v>
+        <v>164020.20000000001</v>
       </c>
       <c r="Y55" s="61">
         <f t="shared" ref="Y55" si="73">SUM(Y48:Y54)</f>
-        <v>309282.59999999998</v>
+        <v>164020.20000000001</v>
       </c>
       <c r="Z55" s="61">
         <f t="shared" ref="Z55" si="74">SUM(Z48:Z54)</f>
-        <v>318469.40000000002</v>
+        <v>168883.8</v>
       </c>
       <c r="AA55" s="61">
         <f t="shared" ref="AA55" si="75">SUM(AA48:AA54)</f>
-        <v>318469.40000000002</v>
+        <v>168883.8</v>
       </c>
       <c r="AB55" s="62">
         <f t="shared" ref="AB55" si="76">SUM(AB48:AB54)</f>
-        <v>2878298</v>
+        <v>1526346</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9386,30 +10598,30 @@
       </c>
       <c r="J58" s="36">
         <f>$O$22</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K58" s="36">
         <f>$P$22</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L58" s="36">
         <f>$Q$22</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O58">
         <f>_xlfn.XLOOKUP($H58,$J$27:$L$27,$J58:$L58)</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q58" s="86">
         <f>I58*O58</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="R58" s="19">
         <f t="shared" ref="R58:R64" si="79">$Q58*$C58*(1-$F58)</f>
-        <v>91868</v>
+        <v>45934</v>
       </c>
       <c r="S58" s="19"/>
       <c r="T58" s="19"/>
@@ -9429,15 +10641,15 @@
       </c>
       <c r="Z58" s="19">
         <f t="shared" si="80"/>
-        <v>18373.599999999999</v>
+        <v>9186.7999999999993</v>
       </c>
       <c r="AA58" s="19">
         <f t="shared" si="80"/>
-        <v>18373.599999999999</v>
+        <v>9186.7999999999993</v>
       </c>
       <c r="AB58" s="20">
         <f>SUM(R58:AA58)</f>
-        <v>128615.20000000001</v>
+        <v>64307.600000000006</v>
       </c>
     </row>
     <row r="59" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -9476,30 +10688,30 @@
       </c>
       <c r="J59" s="1">
         <f>J58</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K59" s="1">
         <f t="shared" ref="K59:K64" si="82">K58</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" ref="L59:L64" si="83">L58</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O59">
         <f t="shared" ref="O59:O64" si="84">_xlfn.XLOOKUP($H59,$J$27:$L$27,$J59:$L59)</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P59" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q59" s="86">
         <f t="shared" ref="Q59:Q64" si="85">I59*O59</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="R59" s="19">
         <f t="shared" si="79"/>
-        <v>36210</v>
+        <v>18105</v>
       </c>
       <c r="S59" s="19"/>
       <c r="T59" s="19"/>
@@ -9511,23 +10723,23 @@
       </c>
       <c r="X59" s="19">
         <f t="shared" si="80"/>
-        <v>7242</v>
+        <v>3621</v>
       </c>
       <c r="Y59" s="19">
         <f t="shared" si="80"/>
-        <v>7242</v>
+        <v>3621</v>
       </c>
       <c r="Z59" s="19">
         <f t="shared" si="80"/>
-        <v>7242</v>
+        <v>3621</v>
       </c>
       <c r="AA59" s="19">
         <f t="shared" si="80"/>
-        <v>7242</v>
+        <v>3621</v>
       </c>
       <c r="AB59" s="20">
         <f t="shared" ref="AB59:AB60" si="86">SUM(R59:AA59)</f>
-        <v>65178</v>
+        <v>32589</v>
       </c>
     </row>
     <row r="60" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -9566,30 +10778,30 @@
       </c>
       <c r="J60" s="1">
         <f t="shared" ref="J60:J64" si="88">J59</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="82"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="83"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O60">
         <f t="shared" si="84"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P60" s="10" t="s">
         <v>94</v>
       </c>
       <c r="Q60" s="86">
         <f t="shared" si="85"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="R60" s="19">
         <f t="shared" si="79"/>
-        <v>1014220</v>
+        <v>507110</v>
       </c>
       <c r="S60" s="19"/>
       <c r="T60" s="19"/>
@@ -9601,23 +10813,23 @@
       </c>
       <c r="X60" s="19">
         <f t="shared" si="80"/>
-        <v>202844</v>
+        <v>101422</v>
       </c>
       <c r="Y60" s="19">
         <f t="shared" si="80"/>
-        <v>202844</v>
+        <v>101422</v>
       </c>
       <c r="Z60" s="19">
         <f t="shared" si="80"/>
-        <v>202844</v>
+        <v>101422</v>
       </c>
       <c r="AA60" s="19">
         <f t="shared" si="80"/>
-        <v>202844</v>
+        <v>101422</v>
       </c>
       <c r="AB60" s="20">
         <f t="shared" si="86"/>
-        <v>1825596</v>
+        <v>912798</v>
       </c>
     </row>
     <row r="61" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -9656,30 +10868,30 @@
       </c>
       <c r="J61" s="1">
         <f t="shared" si="88"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="82"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="83"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O61">
         <f t="shared" si="84"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P61" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q61" s="86">
         <f t="shared" si="85"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="R61" s="19">
         <f t="shared" si="79"/>
-        <v>1376626</v>
+        <v>688313</v>
       </c>
       <c r="S61" s="19"/>
       <c r="T61" s="19"/>
@@ -9691,23 +10903,23 @@
       </c>
       <c r="X61" s="19">
         <f t="shared" si="80"/>
-        <v>275325.2</v>
+        <v>137662.6</v>
       </c>
       <c r="Y61" s="19">
         <f t="shared" si="80"/>
-        <v>275325.2</v>
+        <v>137662.6</v>
       </c>
       <c r="Z61" s="19">
         <f t="shared" si="80"/>
-        <v>275325.2</v>
+        <v>137662.6</v>
       </c>
       <c r="AA61" s="19">
         <f t="shared" si="80"/>
-        <v>275325.2</v>
+        <v>137662.6</v>
       </c>
       <c r="AB61" s="20">
         <f>SUM(R61:AA61)</f>
-        <v>2477926.8000000003</v>
+        <v>1238963.4000000001</v>
       </c>
     </row>
     <row r="62" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -9746,30 +10958,30 @@
       </c>
       <c r="J62" s="1">
         <f t="shared" si="88"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K62" s="1">
         <f t="shared" si="82"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="83"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O62">
         <f t="shared" si="84"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P62" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q62" s="86">
         <f t="shared" si="85"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="R62" s="19">
         <f t="shared" si="79"/>
-        <v>507110</v>
+        <v>253555</v>
       </c>
       <c r="S62" s="19"/>
       <c r="T62" s="19"/>
@@ -9777,27 +10989,27 @@
       <c r="V62" s="19"/>
       <c r="W62" s="19">
         <f t="shared" si="80"/>
-        <v>111554</v>
+        <v>55777</v>
       </c>
       <c r="X62" s="19">
         <f t="shared" si="80"/>
-        <v>111554</v>
+        <v>55777</v>
       </c>
       <c r="Y62" s="19">
         <f t="shared" si="80"/>
-        <v>111554</v>
+        <v>55777</v>
       </c>
       <c r="Z62" s="19">
         <f t="shared" si="80"/>
-        <v>111554</v>
+        <v>55777</v>
       </c>
       <c r="AA62" s="19">
         <f t="shared" si="80"/>
-        <v>111554</v>
+        <v>55777</v>
       </c>
       <c r="AB62" s="20">
         <f>SUM(R62:AA62)</f>
-        <v>1064880</v>
+        <v>532440</v>
       </c>
     </row>
     <row r="63" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -9836,30 +11048,30 @@
       </c>
       <c r="J63" s="1">
         <f t="shared" si="88"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="82"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="83"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O63">
         <f t="shared" si="84"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P63" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q63" s="86">
         <f t="shared" si="85"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R63" s="19">
         <f t="shared" si="79"/>
-        <v>51000</v>
+        <v>27000</v>
       </c>
       <c r="S63" s="19"/>
       <c r="T63" s="19"/>
@@ -9871,23 +11083,23 @@
       </c>
       <c r="X63" s="19">
         <f t="shared" si="80"/>
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="Y63" s="19">
         <f t="shared" si="80"/>
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="Z63" s="19">
         <f t="shared" si="80"/>
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="AA63" s="19">
         <f t="shared" si="80"/>
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="AB63" s="20">
         <f t="shared" ref="AB63:AB64" si="92">SUM(R63:AA63)</f>
-        <v>91800</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="64" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -9926,30 +11138,30 @@
       </c>
       <c r="J64" s="1">
         <f t="shared" si="88"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="82"/>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="83"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O64">
         <f t="shared" si="84"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P64" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q64" s="86">
         <f t="shared" si="85"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R64" s="19">
         <f t="shared" si="79"/>
-        <v>51000</v>
+        <v>27000</v>
       </c>
       <c r="S64" s="19"/>
       <c r="T64" s="19"/>
@@ -9961,23 +11173,23 @@
       </c>
       <c r="X64" s="19">
         <f t="shared" si="80"/>
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="Y64" s="19">
         <f t="shared" si="80"/>
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="Z64" s="19">
         <f t="shared" si="80"/>
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="AA64" s="19">
         <f t="shared" si="80"/>
-        <v>10200</v>
+        <v>5400</v>
       </c>
       <c r="AB64" s="20">
         <f t="shared" si="92"/>
-        <v>91800</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="65" spans="1:29" s="39" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -9986,7 +11198,7 @@
       </c>
       <c r="R65" s="61">
         <f>SUM(R58:R64)</f>
-        <v>3128034</v>
+        <v>1567017</v>
       </c>
       <c r="S65" s="61">
         <f t="shared" ref="S65" si="94">SUM(S58:S64)</f>
@@ -10006,27 +11218,27 @@
       </c>
       <c r="W65" s="61">
         <f t="shared" ref="W65" si="98">SUM(W58:W64)</f>
-        <v>111554</v>
+        <v>55777</v>
       </c>
       <c r="X65" s="61">
         <f t="shared" ref="X65" si="99">SUM(X58:X64)</f>
-        <v>617365.19999999995</v>
+        <v>309282.59999999998</v>
       </c>
       <c r="Y65" s="61">
         <f t="shared" ref="Y65" si="100">SUM(Y58:Y64)</f>
-        <v>617365.19999999995</v>
+        <v>309282.59999999998</v>
       </c>
       <c r="Z65" s="61">
         <f t="shared" ref="Z65" si="101">SUM(Z58:Z64)</f>
-        <v>635738.80000000005</v>
+        <v>318469.40000000002</v>
       </c>
       <c r="AA65" s="61">
         <f t="shared" ref="AA65" si="102">SUM(AA58:AA64)</f>
-        <v>635738.80000000005</v>
+        <v>318469.40000000002</v>
       </c>
       <c r="AB65" s="62">
         <f t="shared" ref="AB65" si="103">SUM(AB58:AB64)</f>
-        <v>5745796</v>
+        <v>2878298</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10145,30 +11357,30 @@
       </c>
       <c r="J68" s="36">
         <f>$O$23</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K68" s="36">
         <f>$P$23</f>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="L68" s="36">
         <f>$Q$23</f>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="O68">
         <f>_xlfn.XLOOKUP($H68,$J$27:$L$27,$J68:$L68)</f>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="P68" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q68" s="86">
         <f>I68*O68</f>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="R68" s="19">
         <f t="shared" ref="R68:R74" si="106">$Q68*$C68*(1-$F68)</f>
-        <v>186438</v>
+        <v>102676</v>
       </c>
       <c r="S68" s="19"/>
       <c r="T68" s="19"/>
@@ -10188,15 +11400,15 @@
       </c>
       <c r="Z68" s="19">
         <f t="shared" si="107"/>
-        <v>37287.599999999999</v>
+        <v>20535.2</v>
       </c>
       <c r="AA68" s="19">
         <f t="shared" si="107"/>
-        <v>37287.599999999999</v>
+        <v>20535.2</v>
       </c>
       <c r="AB68" s="20">
         <f>SUM(R68:AA68)</f>
-        <v>261013.2</v>
+        <v>143746.4</v>
       </c>
     </row>
     <row r="69" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -10235,30 +11447,30 @@
       </c>
       <c r="J69" s="1">
         <f>J68</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K69" s="1">
         <f t="shared" ref="K69:K74" si="109">K68</f>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" ref="L69:L74" si="110">L68</f>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="O69">
         <f t="shared" ref="O69:O74" si="111">_xlfn.XLOOKUP($H69,$J$27:$L$27,$J69:$L69)</f>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="P69" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q69" s="86">
         <f t="shared" ref="Q69:Q74" si="112">I69*O69</f>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="R69" s="19">
         <f t="shared" si="106"/>
-        <v>73485</v>
+        <v>40470</v>
       </c>
       <c r="S69" s="19"/>
       <c r="T69" s="19"/>
@@ -10270,23 +11482,23 @@
       </c>
       <c r="X69" s="19">
         <f t="shared" si="107"/>
-        <v>14697</v>
+        <v>8094</v>
       </c>
       <c r="Y69" s="19">
         <f t="shared" si="107"/>
-        <v>14697</v>
+        <v>8094</v>
       </c>
       <c r="Z69" s="19">
         <f t="shared" si="107"/>
-        <v>14697</v>
+        <v>8094</v>
       </c>
       <c r="AA69" s="19">
         <f t="shared" si="107"/>
-        <v>14697</v>
+        <v>8094</v>
       </c>
       <c r="AB69" s="20">
         <f t="shared" ref="AB69:AB70" si="113">SUM(R69:AA69)</f>
-        <v>132273</v>
+        <v>72846</v>
       </c>
     </row>
     <row r="70" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -10325,30 +11537,30 @@
       </c>
       <c r="J70" s="1">
         <f t="shared" ref="J70:J74" si="115">J69</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K70" s="1">
         <f t="shared" si="109"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" si="110"/>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="O70">
         <f t="shared" si="111"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="P70" s="10" t="s">
         <v>94</v>
       </c>
       <c r="Q70" s="86">
         <f t="shared" si="112"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="R70" s="19">
         <f t="shared" si="106"/>
-        <v>2058270</v>
+        <v>1133540</v>
       </c>
       <c r="S70" s="19"/>
       <c r="T70" s="19"/>
@@ -10360,23 +11572,23 @@
       </c>
       <c r="X70" s="19">
         <f t="shared" si="107"/>
-        <v>411654</v>
+        <v>226708</v>
       </c>
       <c r="Y70" s="19">
         <f t="shared" si="107"/>
-        <v>411654</v>
+        <v>226708</v>
       </c>
       <c r="Z70" s="19">
         <f t="shared" si="107"/>
-        <v>411654</v>
+        <v>226708</v>
       </c>
       <c r="AA70" s="19">
         <f t="shared" si="107"/>
-        <v>411654</v>
+        <v>226708</v>
       </c>
       <c r="AB70" s="20">
         <f t="shared" si="113"/>
-        <v>3704886</v>
+        <v>2040372</v>
       </c>
     </row>
     <row r="71" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -10415,30 +11627,30 @@
       </c>
       <c r="J71" s="1">
         <f t="shared" si="115"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K71" s="1">
         <f t="shared" si="109"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" si="110"/>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="O71">
         <f t="shared" si="111"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="P71" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q71" s="86">
         <f t="shared" si="112"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="R71" s="19">
         <f t="shared" si="106"/>
-        <v>2793741</v>
+        <v>1538582</v>
       </c>
       <c r="S71" s="19"/>
       <c r="T71" s="19"/>
@@ -10450,23 +11662,23 @@
       </c>
       <c r="X71" s="19">
         <f t="shared" si="107"/>
-        <v>558748.20000000007</v>
+        <v>307716.40000000002</v>
       </c>
       <c r="Y71" s="19">
         <f t="shared" si="107"/>
-        <v>558748.20000000007</v>
+        <v>307716.40000000002</v>
       </c>
       <c r="Z71" s="19">
         <f t="shared" si="107"/>
-        <v>558748.20000000007</v>
+        <v>307716.40000000002</v>
       </c>
       <c r="AA71" s="19">
         <f t="shared" si="107"/>
-        <v>558748.20000000007</v>
+        <v>307716.40000000002</v>
       </c>
       <c r="AB71" s="20">
         <f>SUM(R71:AA71)</f>
-        <v>5028733.8000000007</v>
+        <v>2769447.5999999996</v>
       </c>
     </row>
     <row r="72" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -10505,30 +11717,30 @@
       </c>
       <c r="J72" s="1">
         <f t="shared" si="115"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K72" s="1">
         <f t="shared" si="109"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" si="110"/>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="O72">
         <f t="shared" si="111"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="P72" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q72" s="86">
         <f t="shared" si="112"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="R72" s="19">
         <f t="shared" si="106"/>
-        <v>1029135</v>
+        <v>566770</v>
       </c>
       <c r="S72" s="19"/>
       <c r="T72" s="19"/>
@@ -10536,27 +11748,27 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19">
         <f t="shared" si="107"/>
-        <v>226389</v>
+        <v>124678</v>
       </c>
       <c r="X72" s="19">
         <f t="shared" si="107"/>
-        <v>226389</v>
+        <v>124678</v>
       </c>
       <c r="Y72" s="19">
         <f t="shared" si="107"/>
-        <v>226389</v>
+        <v>124678</v>
       </c>
       <c r="Z72" s="19">
         <f t="shared" si="107"/>
-        <v>226389</v>
+        <v>124678</v>
       </c>
       <c r="AA72" s="19">
         <f t="shared" si="107"/>
-        <v>226389</v>
+        <v>124678</v>
       </c>
       <c r="AB72" s="20">
         <f>SUM(R72:AA72)</f>
-        <v>2161080</v>
+        <v>1190160</v>
       </c>
     </row>
     <row r="73" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -10595,30 +11807,30 @@
       </c>
       <c r="J73" s="1">
         <f t="shared" si="115"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K73" s="1">
         <f t="shared" si="109"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" si="110"/>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="O73">
         <f t="shared" si="111"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P73" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q73" s="86">
         <f t="shared" si="112"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R73" s="19">
         <f t="shared" si="106"/>
-        <v>105000</v>
+        <v>60000</v>
       </c>
       <c r="S73" s="19"/>
       <c r="T73" s="19"/>
@@ -10630,23 +11842,23 @@
       </c>
       <c r="X73" s="19">
         <f t="shared" si="107"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Y73" s="19">
         <f t="shared" si="107"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Z73" s="19">
         <f t="shared" si="107"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="AA73" s="19">
         <f t="shared" si="107"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="AB73" s="20">
         <f t="shared" ref="AB73:AB74" si="119">SUM(R73:AA73)</f>
-        <v>189000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="74" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -10685,30 +11897,30 @@
       </c>
       <c r="J74" s="1">
         <f t="shared" si="115"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K74" s="1">
         <f t="shared" si="109"/>
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" si="110"/>
-        <v>824</v>
+        <v>448</v>
       </c>
       <c r="O74">
         <f t="shared" si="111"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P74" s="10" t="s">
         <v>32</v>
       </c>
       <c r="Q74" s="86">
         <f t="shared" si="112"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R74" s="19">
         <f t="shared" si="106"/>
-        <v>105000</v>
+        <v>60000</v>
       </c>
       <c r="S74" s="19"/>
       <c r="T74" s="19"/>
@@ -10720,23 +11932,23 @@
       </c>
       <c r="X74" s="19">
         <f t="shared" si="107"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Y74" s="19">
         <f t="shared" si="107"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Z74" s="19">
         <f t="shared" si="107"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="AA74" s="19">
         <f t="shared" si="107"/>
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="AB74" s="20">
         <f t="shared" si="119"/>
-        <v>189000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="75" spans="1:29" s="39" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.3">
@@ -10745,7 +11957,7 @@
       </c>
       <c r="R75" s="61">
         <f>SUM(R68:R74)</f>
-        <v>6351069</v>
+        <v>3502038</v>
       </c>
       <c r="S75" s="61">
         <f t="shared" ref="S75" si="121">SUM(S68:S74)</f>
@@ -10765,27 +11977,27 @@
       </c>
       <c r="W75" s="61">
         <f t="shared" ref="W75" si="125">SUM(W68:W74)</f>
-        <v>226389</v>
+        <v>124678</v>
       </c>
       <c r="X75" s="61">
         <f t="shared" ref="X75" si="126">SUM(X68:X74)</f>
-        <v>1253488.2000000002</v>
+        <v>691196.4</v>
       </c>
       <c r="Y75" s="61">
         <f t="shared" ref="Y75" si="127">SUM(Y68:Y74)</f>
-        <v>1253488.2000000002</v>
+        <v>691196.4</v>
       </c>
       <c r="Z75" s="61">
         <f t="shared" ref="Z75" si="128">SUM(Z68:Z74)</f>
-        <v>1290775.8</v>
+        <v>711731.60000000009</v>
       </c>
       <c r="AA75" s="61">
         <f t="shared" ref="AA75" si="129">SUM(AA68:AA74)</f>
-        <v>1290775.8</v>
+        <v>711731.60000000009</v>
       </c>
       <c r="AB75" s="62">
         <f t="shared" ref="AB75" si="130">SUM(AB68:AB74)</f>
-        <v>11665986</v>
+        <v>6432572</v>
       </c>
     </row>
     <row r="76" spans="1:29" outlineLevel="1" x14ac:dyDescent="0.3"/>
@@ -10796,7 +12008,7 @@
       <c r="P77" s="8"/>
       <c r="R77" s="62">
         <f>R35+R45+R55+R65+R75</f>
-        <v>15925173</v>
+        <v>8666094</v>
       </c>
       <c r="S77" s="62">
         <f t="shared" ref="S77:AB77" si="131">S35+S45+S55+S65+S75</f>
@@ -10816,27 +12028,27 @@
       </c>
       <c r="W77" s="62">
         <f t="shared" si="131"/>
-        <v>567613</v>
+        <v>308414</v>
       </c>
       <c r="X77" s="62">
         <f t="shared" si="131"/>
-        <v>3143099.4000000004</v>
+        <v>1710433.2</v>
       </c>
       <c r="Y77" s="62">
         <f t="shared" si="131"/>
-        <v>3143099.4000000004</v>
+        <v>1710433.2</v>
       </c>
       <c r="Z77" s="62">
         <f t="shared" si="131"/>
-        <v>3236588.6</v>
+        <v>1761230.8000000003</v>
       </c>
       <c r="AA77" s="62">
         <f t="shared" si="131"/>
-        <v>3236588.6</v>
+        <v>1761230.8000000003</v>
       </c>
       <c r="AB77" s="62">
         <f t="shared" si="131"/>
-        <v>29252162</v>
+        <v>15917836</v>
       </c>
       <c r="AC77" s="5" t="s">
         <v>19</v>
@@ -10921,11 +12133,11 @@
       </c>
       <c r="O81" s="33">
         <f>$O$19</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P81" s="9">
         <f>$O81/$D$81</f>
-        <v>0.6</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="R81" s="19"/>
       <c r="S81" s="19"/>
@@ -10934,27 +12146,27 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19">
         <f>$D$82*$P81</f>
-        <v>60000</v>
+        <v>36666.666666666664</v>
       </c>
       <c r="X81" s="19">
         <f t="shared" ref="X81:AA85" si="132">$D$82*$P81</f>
-        <v>60000</v>
+        <v>36666.666666666664</v>
       </c>
       <c r="Y81" s="19">
         <f t="shared" si="132"/>
-        <v>60000</v>
+        <v>36666.666666666664</v>
       </c>
       <c r="Z81" s="19">
         <f t="shared" si="132"/>
-        <v>60000</v>
+        <v>36666.666666666664</v>
       </c>
       <c r="AA81" s="19">
         <f t="shared" si="132"/>
-        <v>60000</v>
+        <v>36666.666666666664</v>
       </c>
       <c r="AB81" s="20">
         <f>SUM(R81:AA81)</f>
-        <v>300000</v>
+        <v>183333.33333333331</v>
       </c>
       <c r="AC81" s="1" t="s">
         <v>6</v>
@@ -10972,11 +12184,11 @@
       </c>
       <c r="O82" s="33">
         <f>$O$20</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P82" s="9">
         <f t="shared" ref="P82:P85" si="133">$O82/$D$81</f>
-        <v>0.3</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R82" s="19"/>
       <c r="S82" s="19"/>
@@ -10985,27 +12197,27 @@
       <c r="V82" s="19"/>
       <c r="W82" s="19">
         <f t="shared" ref="W82:W85" si="134">$D$82*$P82</f>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="X82" s="19">
         <f t="shared" si="132"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="Y82" s="19">
         <f t="shared" si="132"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="Z82" s="19">
         <f t="shared" si="132"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="AA82" s="19">
         <f t="shared" si="132"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="AB82" s="20">
         <f t="shared" ref="AB82:AB85" si="135">SUM(R82:AA82)</f>
-        <v>150000</v>
+        <v>83333.333333333314</v>
       </c>
       <c r="AC82" s="1" t="s">
         <v>7</v>
@@ -11018,11 +12230,11 @@
       </c>
       <c r="O83" s="33">
         <f>$O$21</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P83" s="9">
         <f t="shared" si="133"/>
-        <v>0.3</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="R83" s="19"/>
       <c r="S83" s="19"/>
@@ -11031,27 +12243,27 @@
       <c r="V83" s="19"/>
       <c r="W83" s="19">
         <f t="shared" si="134"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="X83" s="19">
         <f t="shared" si="132"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="Y83" s="19">
         <f t="shared" si="132"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="Z83" s="19">
         <f t="shared" si="132"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="AA83" s="19">
         <f t="shared" si="132"/>
-        <v>30000</v>
+        <v>16666.666666666664</v>
       </c>
       <c r="AB83" s="20">
         <f t="shared" si="135"/>
-        <v>150000</v>
+        <v>83333.333333333314</v>
       </c>
       <c r="AC83" s="1" t="s">
         <v>8</v>
@@ -11063,11 +12275,11 @@
       </c>
       <c r="O84" s="33">
         <f>$O$22</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P84" s="9">
         <f t="shared" si="133"/>
-        <v>0.56666666666666665</v>
+        <v>0.3</v>
       </c>
       <c r="R84" s="19"/>
       <c r="S84" s="19"/>
@@ -11076,27 +12288,27 @@
       <c r="V84" s="19"/>
       <c r="W84" s="19">
         <f t="shared" si="134"/>
-        <v>56666.666666666664</v>
+        <v>30000</v>
       </c>
       <c r="X84" s="19">
         <f t="shared" si="132"/>
-        <v>56666.666666666664</v>
+        <v>30000</v>
       </c>
       <c r="Y84" s="19">
         <f t="shared" si="132"/>
-        <v>56666.666666666664</v>
+        <v>30000</v>
       </c>
       <c r="Z84" s="19">
         <f t="shared" si="132"/>
-        <v>56666.666666666664</v>
+        <v>30000</v>
       </c>
       <c r="AA84" s="19">
         <f t="shared" si="132"/>
-        <v>56666.666666666664</v>
+        <v>30000</v>
       </c>
       <c r="AB84" s="20">
         <f t="shared" si="135"/>
-        <v>283333.33333333331</v>
+        <v>150000</v>
       </c>
       <c r="AC84" s="1" t="s">
         <v>9</v>
@@ -11108,11 +12320,11 @@
       </c>
       <c r="O85" s="33">
         <f>$O$23</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P85" s="9">
         <f t="shared" si="133"/>
-        <v>1.1666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R85" s="19"/>
       <c r="S85" s="19"/>
@@ -11121,27 +12333,27 @@
       <c r="V85" s="19"/>
       <c r="W85" s="19">
         <f t="shared" si="134"/>
-        <v>116666.66666666667</v>
+        <v>66666.666666666657</v>
       </c>
       <c r="X85" s="19">
         <f t="shared" si="132"/>
-        <v>116666.66666666667</v>
+        <v>66666.666666666657</v>
       </c>
       <c r="Y85" s="19">
         <f t="shared" si="132"/>
-        <v>116666.66666666667</v>
+        <v>66666.666666666657</v>
       </c>
       <c r="Z85" s="19">
         <f t="shared" si="132"/>
-        <v>116666.66666666667</v>
+        <v>66666.666666666657</v>
       </c>
       <c r="AA85" s="19">
         <f t="shared" si="132"/>
-        <v>116666.66666666667</v>
+        <v>66666.666666666657</v>
       </c>
       <c r="AB85" s="20">
         <f t="shared" si="135"/>
-        <v>583333.33333333337</v>
+        <v>333333.33333333326</v>
       </c>
       <c r="AC85" s="1" t="s">
         <v>10</v>
@@ -11154,7 +12366,7 @@
       </c>
       <c r="P86" s="118">
         <f>SUM(P81:P85)</f>
-        <v>2.9333333333333336</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="R86" s="62">
         <f>SUM(R81:R85)</f>
@@ -11178,27 +12390,27 @@
       </c>
       <c r="W86" s="62">
         <f t="shared" si="136"/>
-        <v>293333.33333333331</v>
+        <v>166666.66666666666</v>
       </c>
       <c r="X86" s="62">
         <f t="shared" si="136"/>
-        <v>293333.33333333331</v>
+        <v>166666.66666666666</v>
       </c>
       <c r="Y86" s="62">
         <f t="shared" si="136"/>
-        <v>293333.33333333331</v>
+        <v>166666.66666666666</v>
       </c>
       <c r="Z86" s="62">
         <f t="shared" si="136"/>
-        <v>293333.33333333331</v>
+        <v>166666.66666666666</v>
       </c>
       <c r="AA86" s="62">
         <f t="shared" si="136"/>
-        <v>293333.33333333331</v>
+        <v>166666.66666666666</v>
       </c>
       <c r="AB86" s="62">
         <f t="shared" si="136"/>
-        <v>1466666.6666666665</v>
+        <v>833333.33333333326</v>
       </c>
       <c r="AC86" s="5" t="s">
         <v>19</v>
@@ -11280,11 +12492,11 @@
       </c>
       <c r="P90" s="33">
         <f>$O$19</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="R90" s="19">
         <f>$P90*($D$90*(1-$D$91))</f>
-        <v>88200</v>
+        <v>53900</v>
       </c>
       <c r="S90" s="19"/>
       <c r="T90" s="19"/>
@@ -11296,23 +12508,23 @@
       </c>
       <c r="X90" s="19">
         <f t="shared" si="137"/>
-        <v>8819.9999999999982</v>
+        <v>5389.9999999999991</v>
       </c>
       <c r="Y90" s="19">
         <f t="shared" si="137"/>
-        <v>8819.9999999999982</v>
+        <v>5389.9999999999991</v>
       </c>
       <c r="Z90" s="19">
         <f t="shared" si="137"/>
-        <v>8819.9999999999982</v>
+        <v>5389.9999999999991</v>
       </c>
       <c r="AA90" s="19">
         <f t="shared" si="137"/>
-        <v>8819.9999999999982</v>
+        <v>5389.9999999999991</v>
       </c>
       <c r="AB90" s="20">
         <f>SUM(R90:AA90)</f>
-        <v>123480</v>
+        <v>75460</v>
       </c>
       <c r="AC90" s="1" t="s">
         <v>6</v>
@@ -11330,11 +12542,11 @@
       </c>
       <c r="P91" s="33">
         <f>$O$20</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R91" s="19">
         <f>$P91*($D$90*(1-$D$91))</f>
-        <v>44100</v>
+        <v>24500</v>
       </c>
       <c r="S91" s="19"/>
       <c r="T91" s="19"/>
@@ -11346,23 +12558,23 @@
       </c>
       <c r="X91" s="19">
         <f t="shared" si="137"/>
-        <v>4409.9999999999991</v>
+        <v>2449.9999999999995</v>
       </c>
       <c r="Y91" s="19">
         <f t="shared" si="137"/>
-        <v>4409.9999999999991</v>
+        <v>2449.9999999999995</v>
       </c>
       <c r="Z91" s="19">
         <f t="shared" si="137"/>
-        <v>4409.9999999999991</v>
+        <v>2449.9999999999995</v>
       </c>
       <c r="AA91" s="19">
         <f t="shared" si="137"/>
-        <v>4409.9999999999991</v>
+        <v>2449.9999999999995</v>
       </c>
       <c r="AB91" s="20">
         <f t="shared" ref="AB91:AB94" si="138">SUM(R91:AA91)</f>
-        <v>61740</v>
+        <v>34300</v>
       </c>
       <c r="AC91" s="1" t="s">
         <v>7</v>
@@ -11381,11 +12593,11 @@
       </c>
       <c r="P92" s="33">
         <f>$O$21</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R92" s="19">
         <f>$P92*($D$90*(1-$D$91))</f>
-        <v>44100</v>
+        <v>24500</v>
       </c>
       <c r="S92" s="19"/>
       <c r="T92" s="19"/>
@@ -11397,23 +12609,23 @@
       </c>
       <c r="X92" s="19">
         <f t="shared" si="137"/>
-        <v>4409.9999999999991</v>
+        <v>2449.9999999999995</v>
       </c>
       <c r="Y92" s="19">
         <f t="shared" si="137"/>
-        <v>4409.9999999999991</v>
+        <v>2449.9999999999995</v>
       </c>
       <c r="Z92" s="19">
         <f t="shared" si="137"/>
-        <v>4409.9999999999991</v>
+        <v>2449.9999999999995</v>
       </c>
       <c r="AA92" s="19">
         <f t="shared" si="137"/>
-        <v>4409.9999999999991</v>
+        <v>2449.9999999999995</v>
       </c>
       <c r="AB92" s="20">
         <f t="shared" si="138"/>
-        <v>61740</v>
+        <v>34300</v>
       </c>
       <c r="AC92" s="1" t="s">
         <v>8</v>
@@ -11432,11 +12644,11 @@
       </c>
       <c r="P93" s="33">
         <f>$O$22</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R93" s="19">
         <f>$P93*($D$90*(1-$D$91))</f>
-        <v>83300</v>
+        <v>44100</v>
       </c>
       <c r="S93" s="19"/>
       <c r="T93" s="19"/>
@@ -11448,23 +12660,23 @@
       </c>
       <c r="X93" s="19">
         <f t="shared" si="137"/>
-        <v>8329.9999999999982</v>
+        <v>4409.9999999999991</v>
       </c>
       <c r="Y93" s="19">
         <f t="shared" si="137"/>
-        <v>8329.9999999999982</v>
+        <v>4409.9999999999991</v>
       </c>
       <c r="Z93" s="19">
         <f t="shared" si="137"/>
-        <v>8329.9999999999982</v>
+        <v>4409.9999999999991</v>
       </c>
       <c r="AA93" s="19">
         <f t="shared" si="137"/>
-        <v>8329.9999999999982</v>
+        <v>4409.9999999999991</v>
       </c>
       <c r="AB93" s="20">
         <f t="shared" si="138"/>
-        <v>116620</v>
+        <v>61740</v>
       </c>
       <c r="AC93" s="1" t="s">
         <v>9</v>
@@ -11482,11 +12694,11 @@
       </c>
       <c r="P94" s="33">
         <f>$O$23</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R94" s="19">
         <f>$P94*($D$90*(1-$D$91))</f>
-        <v>171500</v>
+        <v>98000</v>
       </c>
       <c r="S94" s="19"/>
       <c r="T94" s="19"/>
@@ -11498,23 +12710,23 @@
       </c>
       <c r="X94" s="19">
         <f t="shared" si="137"/>
-        <v>17149.999999999996</v>
+        <v>9799.9999999999982</v>
       </c>
       <c r="Y94" s="19">
         <f t="shared" si="137"/>
-        <v>17149.999999999996</v>
+        <v>9799.9999999999982</v>
       </c>
       <c r="Z94" s="19">
         <f t="shared" si="137"/>
-        <v>17149.999999999996</v>
+        <v>9799.9999999999982</v>
       </c>
       <c r="AA94" s="19">
         <f t="shared" si="137"/>
-        <v>17149.999999999996</v>
+        <v>9799.9999999999982</v>
       </c>
       <c r="AB94" s="20">
         <f t="shared" si="138"/>
-        <v>240100</v>
+        <v>137200</v>
       </c>
       <c r="AC94" s="1" t="s">
         <v>10</v>
@@ -11526,11 +12738,11 @@
       </c>
       <c r="P95" s="50">
         <f>SUM(P90:P94)</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="R95" s="62">
         <f>SUM(R90:R94)</f>
-        <v>431200</v>
+        <v>245000</v>
       </c>
       <c r="S95" s="62">
         <f t="shared" ref="S95" si="139">SUM(S90:S94)</f>
@@ -11554,23 +12766,23 @@
       </c>
       <c r="X95" s="62">
         <f t="shared" ref="X95" si="144">SUM(X90:X94)</f>
-        <v>43119.999999999985</v>
+        <v>24499.999999999993</v>
       </c>
       <c r="Y95" s="62">
         <f t="shared" ref="Y95" si="145">SUM(Y90:Y94)</f>
-        <v>43119.999999999985</v>
+        <v>24499.999999999993</v>
       </c>
       <c r="Z95" s="62">
         <f t="shared" ref="Z95" si="146">SUM(Z90:Z94)</f>
-        <v>43119.999999999985</v>
+        <v>24499.999999999993</v>
       </c>
       <c r="AA95" s="62">
         <f t="shared" ref="AA95" si="147">SUM(AA90:AA94)</f>
-        <v>43119.999999999985</v>
+        <v>24499.999999999993</v>
       </c>
       <c r="AB95" s="62">
         <f t="shared" ref="AB95" si="148">SUM(AB90:AB94)</f>
-        <v>603680</v>
+        <v>343000</v>
       </c>
       <c r="AC95" s="5" t="s">
         <v>19</v>
@@ -11661,15 +12873,15 @@
       </c>
       <c r="O99" s="33">
         <f>$O$19</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P99" s="37">
         <f>$O99/$D$100</f>
-        <v>0.6</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="Q99" s="37">
         <f>ROUNDUP($P99*$D$99,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R99" s="19"/>
       <c r="S99" s="19"/>
@@ -11678,27 +12890,27 @@
       <c r="V99" s="19"/>
       <c r="W99" s="19">
         <f>$Q99*$D$101</f>
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="X99" s="19">
         <f t="shared" ref="X99:AA99" si="149">$Q99*$D$101</f>
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="Y99" s="19">
         <f t="shared" si="149"/>
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="Z99" s="19">
         <f t="shared" si="149"/>
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="AA99" s="19">
         <f t="shared" si="149"/>
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="AB99" s="20">
         <f>SUM(R99:AA99)</f>
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="AC99" s="1" t="s">
         <v>6</v>
@@ -11719,15 +12931,15 @@
       </c>
       <c r="O100" s="33">
         <f>$O$20</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P100" s="37">
         <f t="shared" ref="P100:P103" si="150">$O100/$D$100</f>
-        <v>0.3</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q100" s="37">
         <f t="shared" ref="Q100:Q102" si="151">$P100*$D$99</f>
-        <v>0.78</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="R100" s="19"/>
       <c r="S100" s="19"/>
@@ -11736,27 +12948,27 @@
       <c r="V100" s="19"/>
       <c r="W100" s="19">
         <f t="shared" ref="W100:AA103" si="152">$Q100*$D$101</f>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="X100" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="Y100" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="Z100" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="AA100" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="AB100" s="20">
         <f t="shared" ref="AB100:AB103" si="153">SUM(R100:AA100)</f>
-        <v>10140</v>
+        <v>5633.3333333333339</v>
       </c>
       <c r="AC100" s="1" t="s">
         <v>7</v>
@@ -11777,15 +12989,15 @@
       </c>
       <c r="O101" s="33">
         <f>$O$21</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P101" s="37">
         <f t="shared" si="150"/>
-        <v>0.3</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="Q101" s="37">
         <f t="shared" si="151"/>
-        <v>0.78</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="R101" s="19"/>
       <c r="S101" s="19"/>
@@ -11794,27 +13006,27 @@
       <c r="V101" s="19"/>
       <c r="W101" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="X101" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="Y101" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="Z101" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="AA101" s="19">
         <f t="shared" si="152"/>
-        <v>2028</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="AB101" s="20">
         <f t="shared" si="153"/>
-        <v>10140</v>
+        <v>5633.3333333333339</v>
       </c>
       <c r="AC101" s="1" t="s">
         <v>8</v>
@@ -11826,15 +13038,15 @@
       </c>
       <c r="O102" s="33">
         <f>$O$22</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P102" s="37">
         <f t="shared" si="150"/>
-        <v>0.56666666666666665</v>
+        <v>0.3</v>
       </c>
       <c r="Q102" s="37">
         <f t="shared" si="151"/>
-        <v>1.4733333333333334</v>
+        <v>0.78</v>
       </c>
       <c r="R102" s="19"/>
       <c r="S102" s="19"/>
@@ -11843,27 +13055,27 @@
       <c r="V102" s="19"/>
       <c r="W102" s="19">
         <f t="shared" si="152"/>
-        <v>3830.666666666667</v>
+        <v>2028</v>
       </c>
       <c r="X102" s="19">
         <f t="shared" si="152"/>
-        <v>3830.666666666667</v>
+        <v>2028</v>
       </c>
       <c r="Y102" s="19">
         <f t="shared" si="152"/>
-        <v>3830.666666666667</v>
+        <v>2028</v>
       </c>
       <c r="Z102" s="19">
         <f t="shared" si="152"/>
-        <v>3830.666666666667</v>
+        <v>2028</v>
       </c>
       <c r="AA102" s="19">
         <f t="shared" si="152"/>
-        <v>3830.666666666667</v>
+        <v>2028</v>
       </c>
       <c r="AB102" s="20">
         <f t="shared" si="153"/>
-        <v>19153.333333333336</v>
+        <v>10140</v>
       </c>
       <c r="AC102" s="1" t="s">
         <v>9</v>
@@ -11875,15 +13087,15 @@
       </c>
       <c r="O103" s="33">
         <f>$O$23</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P103" s="37">
         <f t="shared" si="150"/>
-        <v>1.1666666666666667</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="Q103" s="37">
         <f>ROUNDUP($P103*$D$99,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R103" s="19"/>
       <c r="S103" s="19"/>
@@ -11892,27 +13104,27 @@
       <c r="V103" s="19"/>
       <c r="W103" s="19">
         <f t="shared" si="152"/>
-        <v>10400</v>
+        <v>5200</v>
       </c>
       <c r="X103" s="19">
         <f t="shared" si="152"/>
-        <v>10400</v>
+        <v>5200</v>
       </c>
       <c r="Y103" s="19">
         <f t="shared" si="152"/>
-        <v>10400</v>
+        <v>5200</v>
       </c>
       <c r="Z103" s="19">
         <f t="shared" si="152"/>
-        <v>10400</v>
+        <v>5200</v>
       </c>
       <c r="AA103" s="19">
         <f t="shared" si="152"/>
-        <v>10400</v>
+        <v>5200</v>
       </c>
       <c r="AB103" s="20">
         <f t="shared" si="153"/>
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="AC103" s="1" t="s">
         <v>10</v>
@@ -11922,15 +13134,15 @@
       <c r="N104" s="14"/>
       <c r="O104" s="50">
         <f>SUM(O99:O103)</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="P104" s="65">
         <f>SUM(P99:P103)</f>
-        <v>2.9333333333333336</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="Q104" s="65">
         <f>SUM(Q99:Q103)</f>
-        <v>9.033333333333335</v>
+        <v>4.6466666666666665</v>
       </c>
       <c r="R104" s="61">
         <f t="shared" ref="R104" si="154">SUM(R99:R103)</f>
@@ -11954,27 +13166,27 @@
       </c>
       <c r="W104" s="61">
         <f t="shared" ref="W104" si="159">SUM(W99:W103)</f>
-        <v>23486.666666666668</v>
+        <v>12081.333333333334</v>
       </c>
       <c r="X104" s="61">
         <f t="shared" ref="X104" si="160">SUM(X99:X103)</f>
-        <v>23486.666666666668</v>
+        <v>12081.333333333334</v>
       </c>
       <c r="Y104" s="61">
         <f t="shared" ref="Y104" si="161">SUM(Y99:Y103)</f>
-        <v>23486.666666666668</v>
+        <v>12081.333333333334</v>
       </c>
       <c r="Z104" s="61">
         <f t="shared" ref="Z104" si="162">SUM(Z99:Z103)</f>
-        <v>23486.666666666668</v>
+        <v>12081.333333333334</v>
       </c>
       <c r="AA104" s="61">
         <f t="shared" ref="AA104" si="163">SUM(AA99:AA103)</f>
-        <v>23486.666666666668</v>
+        <v>12081.333333333334</v>
       </c>
       <c r="AB104" s="62">
         <f t="shared" ref="AB104" si="164">SUM(AB99:AB103)</f>
-        <v>117433.33333333334</v>
+        <v>60406.666666666672</v>
       </c>
       <c r="AC104" s="5" t="s">
         <v>19</v>
@@ -11989,11 +13201,11 @@
       </c>
       <c r="Q105" s="37">
         <f>ROUNDUP($P104*$D$99,0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W105" s="19">
         <f>$Q104*$D$101</f>
-        <v>23486.666666666672</v>
+        <v>12081.333333333332</v>
       </c>
     </row>
     <row r="106" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -12060,11 +13272,11 @@
       </c>
       <c r="O108" s="33">
         <f>$O$19</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P108" s="42">
         <f>$D$111*O108</f>
-        <v>94607.999999999985</v>
+        <v>57815.999999999993</v>
       </c>
       <c r="R108" s="19"/>
       <c r="S108" s="19"/>
@@ -12073,27 +13285,27 @@
       <c r="V108" s="19"/>
       <c r="W108" s="19">
         <f>$P108*$D$108</f>
-        <v>5455.7279999999992</v>
+        <v>3334.0559999999996</v>
       </c>
       <c r="X108" s="19">
         <f t="shared" ref="X108:AA108" si="165">$P108*$D$108</f>
-        <v>5455.7279999999992</v>
+        <v>3334.0559999999996</v>
       </c>
       <c r="Y108" s="19">
         <f t="shared" si="165"/>
-        <v>5455.7279999999992</v>
+        <v>3334.0559999999996</v>
       </c>
       <c r="Z108" s="19">
         <f t="shared" si="165"/>
-        <v>5455.7279999999992</v>
+        <v>3334.0559999999996</v>
       </c>
       <c r="AA108" s="19">
         <f t="shared" si="165"/>
-        <v>5455.7279999999992</v>
+        <v>3334.0559999999996</v>
       </c>
       <c r="AB108" s="20">
         <f>SUM(R108:AA108)</f>
-        <v>27278.639999999996</v>
+        <v>16670.28</v>
       </c>
       <c r="AC108" s="1" t="s">
         <v>6</v>
@@ -12114,11 +13326,11 @@
       </c>
       <c r="O109" s="33">
         <f>$O$20</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P109" s="42">
         <f t="shared" ref="P109:P112" si="166">$D$111*O109</f>
-        <v>47303.999999999993</v>
+        <v>26279.999999999996</v>
       </c>
       <c r="R109" s="19"/>
       <c r="S109" s="19"/>
@@ -12127,27 +13339,27 @@
       <c r="V109" s="19"/>
       <c r="W109" s="19">
         <f t="shared" ref="W109:AA112" si="167">$P109*$D$108</f>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="X109" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="Y109" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="Z109" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="AA109" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="AB109" s="20">
         <f t="shared" ref="AB109:AB112" si="168">SUM(R109:AA109)</f>
-        <v>13639.319999999998</v>
+        <v>7577.3999999999987</v>
       </c>
       <c r="AC109" s="1" t="s">
         <v>7</v>
@@ -12170,11 +13382,11 @@
       </c>
       <c r="O110" s="33">
         <f>$O$21</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P110" s="42">
         <f t="shared" si="166"/>
-        <v>47303.999999999993</v>
+        <v>26279.999999999996</v>
       </c>
       <c r="R110" s="19"/>
       <c r="S110" s="19"/>
@@ -12183,27 +13395,27 @@
       <c r="V110" s="19"/>
       <c r="W110" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="X110" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="Y110" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="Z110" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="AA110" s="19">
         <f t="shared" si="167"/>
-        <v>2727.8639999999996</v>
+        <v>1515.4799999999998</v>
       </c>
       <c r="AB110" s="20">
         <f t="shared" si="168"/>
-        <v>13639.319999999998</v>
+        <v>7577.3999999999987</v>
       </c>
       <c r="AC110" s="1" t="s">
         <v>8</v>
@@ -12226,11 +13438,11 @@
       </c>
       <c r="O111" s="33">
         <f>$O$22</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="P111" s="42">
         <f t="shared" si="166"/>
-        <v>89351.999999999985</v>
+        <v>47303.999999999993</v>
       </c>
       <c r="R111" s="19"/>
       <c r="S111" s="19"/>
@@ -12239,27 +13451,27 @@
       <c r="V111" s="19"/>
       <c r="W111" s="19">
         <f t="shared" si="167"/>
-        <v>5152.6319999999987</v>
+        <v>2727.8639999999996</v>
       </c>
       <c r="X111" s="19">
         <f t="shared" si="167"/>
-        <v>5152.6319999999987</v>
+        <v>2727.8639999999996</v>
       </c>
       <c r="Y111" s="19">
         <f t="shared" si="167"/>
-        <v>5152.6319999999987</v>
+        <v>2727.8639999999996</v>
       </c>
       <c r="Z111" s="19">
         <f t="shared" si="167"/>
-        <v>5152.6319999999987</v>
+        <v>2727.8639999999996</v>
       </c>
       <c r="AA111" s="19">
         <f t="shared" si="167"/>
-        <v>5152.6319999999987</v>
+        <v>2727.8639999999996</v>
       </c>
       <c r="AB111" s="20">
         <f t="shared" si="168"/>
-        <v>25763.159999999993</v>
+        <v>13639.319999999998</v>
       </c>
       <c r="AC111" s="1" t="s">
         <v>9</v>
@@ -12272,11 +13484,11 @@
       </c>
       <c r="O112" s="33">
         <f>$O$23</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P112" s="42">
         <f t="shared" si="166"/>
-        <v>183959.99999999997</v>
+        <v>105119.99999999999</v>
       </c>
       <c r="R112" s="19"/>
       <c r="S112" s="19"/>
@@ -12285,27 +13497,27 @@
       <c r="V112" s="19"/>
       <c r="W112" s="19">
         <f t="shared" si="167"/>
-        <v>10608.359999999999</v>
+        <v>6061.9199999999992</v>
       </c>
       <c r="X112" s="19">
         <f t="shared" si="167"/>
-        <v>10608.359999999999</v>
+        <v>6061.9199999999992</v>
       </c>
       <c r="Y112" s="19">
         <f t="shared" si="167"/>
-        <v>10608.359999999999</v>
+        <v>6061.9199999999992</v>
       </c>
       <c r="Z112" s="19">
         <f t="shared" si="167"/>
-        <v>10608.359999999999</v>
+        <v>6061.9199999999992</v>
       </c>
       <c r="AA112" s="19">
         <f t="shared" si="167"/>
-        <v>10608.359999999999</v>
+        <v>6061.9199999999992</v>
       </c>
       <c r="AB112" s="20">
         <f t="shared" si="168"/>
-        <v>53041.799999999996</v>
+        <v>30309.599999999995</v>
       </c>
       <c r="AC112" s="1" t="s">
         <v>10</v>
@@ -12315,11 +13527,11 @@
       <c r="N113" s="14"/>
       <c r="O113" s="50">
         <f>SUM(O108:O112)</f>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="P113" s="66">
         <f>SUM(P108:P112)</f>
-        <v>462527.99999999988</v>
+        <v>262799.99999999994</v>
       </c>
       <c r="R113" s="61">
         <f t="shared" ref="R113" si="169">SUM(R108:R112)</f>
@@ -12343,27 +13555,27 @@
       </c>
       <c r="W113" s="61">
         <f t="shared" ref="W113" si="174">SUM(W108:W112)</f>
-        <v>26672.447999999997</v>
+        <v>15154.799999999996</v>
       </c>
       <c r="X113" s="61">
         <f t="shared" ref="X113" si="175">SUM(X108:X112)</f>
-        <v>26672.447999999997</v>
+        <v>15154.799999999996</v>
       </c>
       <c r="Y113" s="61">
         <f t="shared" ref="Y113" si="176">SUM(Y108:Y112)</f>
-        <v>26672.447999999997</v>
+        <v>15154.799999999996</v>
       </c>
       <c r="Z113" s="61">
         <f t="shared" ref="Z113" si="177">SUM(Z108:Z112)</f>
-        <v>26672.447999999997</v>
+        <v>15154.799999999996</v>
       </c>
       <c r="AA113" s="61">
         <f t="shared" ref="AA113" si="178">SUM(AA108:AA112)</f>
-        <v>26672.447999999997</v>
+        <v>15154.799999999996</v>
       </c>
       <c r="AB113" s="62">
         <f t="shared" ref="AB113" si="179">SUM(AB108:AB112)</f>
-        <v>133362.23999999999</v>
+        <v>75773.999999999985</v>
       </c>
       <c r="AC113" s="5" t="s">
         <v>19</v>
@@ -12404,27 +13616,27 @@
       </c>
       <c r="W116" s="21">
         <f t="shared" si="180"/>
-        <v>10655.727999999999</v>
+        <v>5934.0559999999996</v>
       </c>
       <c r="X116" s="21">
         <f t="shared" si="180"/>
-        <v>10655.727999999999</v>
+        <v>5934.0559999999996</v>
       </c>
       <c r="Y116" s="21">
         <f t="shared" si="180"/>
-        <v>10655.727999999999</v>
+        <v>5934.0559999999996</v>
       </c>
       <c r="Z116" s="21">
         <f t="shared" si="180"/>
-        <v>10655.727999999999</v>
+        <v>5934.0559999999996</v>
       </c>
       <c r="AA116" s="21">
         <f t="shared" si="180"/>
-        <v>10655.727999999999</v>
+        <v>5934.0559999999996</v>
       </c>
       <c r="AB116" s="20">
         <f t="shared" si="180"/>
-        <v>53278.64</v>
+        <v>29670.28</v>
       </c>
       <c r="AC116" s="1" t="s">
         <v>6</v>
@@ -12456,27 +13668,27 @@
       </c>
       <c r="W117" s="21">
         <f t="shared" si="181"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="X117" s="21">
         <f t="shared" si="181"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="Y117" s="21">
         <f t="shared" si="181"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="Z117" s="21">
         <f t="shared" si="181"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="AA117" s="21">
         <f t="shared" si="181"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="AB117" s="20">
         <f t="shared" si="181"/>
-        <v>23779.32</v>
+        <v>13210.733333333334</v>
       </c>
       <c r="AC117" s="1" t="s">
         <v>7</v>
@@ -12508,27 +13720,27 @@
       </c>
       <c r="W118" s="21">
         <f t="shared" si="182"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="X118" s="21">
         <f t="shared" si="182"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="Y118" s="21">
         <f t="shared" si="182"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="Z118" s="21">
         <f t="shared" si="182"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="AA118" s="21">
         <f t="shared" si="182"/>
-        <v>4755.8639999999996</v>
+        <v>2642.1466666666665</v>
       </c>
       <c r="AB118" s="20">
         <f t="shared" si="182"/>
-        <v>23779.32</v>
+        <v>13210.733333333334</v>
       </c>
       <c r="AC118" s="1" t="s">
         <v>8</v>
@@ -12560,27 +13772,27 @@
       </c>
       <c r="W119" s="21">
         <f t="shared" si="183"/>
-        <v>8983.2986666666657</v>
+        <v>4755.8639999999996</v>
       </c>
       <c r="X119" s="21">
         <f t="shared" si="183"/>
-        <v>8983.2986666666657</v>
+        <v>4755.8639999999996</v>
       </c>
       <c r="Y119" s="21">
         <f t="shared" si="183"/>
-        <v>8983.2986666666657</v>
+        <v>4755.8639999999996</v>
       </c>
       <c r="Z119" s="21">
         <f t="shared" si="183"/>
-        <v>8983.2986666666657</v>
+        <v>4755.8639999999996</v>
       </c>
       <c r="AA119" s="21">
         <f t="shared" si="183"/>
-        <v>8983.2986666666657</v>
+        <v>4755.8639999999996</v>
       </c>
       <c r="AB119" s="20">
         <f t="shared" si="183"/>
-        <v>44916.493333333332</v>
+        <v>23779.32</v>
       </c>
       <c r="AC119" s="1" t="s">
         <v>9</v>
@@ -12612,27 +13824,27 @@
       </c>
       <c r="W120" s="21">
         <f t="shared" si="184"/>
-        <v>21008.36</v>
+        <v>11261.919999999998</v>
       </c>
       <c r="X120" s="21">
         <f t="shared" si="184"/>
-        <v>21008.36</v>
+        <v>11261.919999999998</v>
       </c>
       <c r="Y120" s="21">
         <f t="shared" si="184"/>
-        <v>21008.36</v>
+        <v>11261.919999999998</v>
       </c>
       <c r="Z120" s="21">
         <f t="shared" si="184"/>
-        <v>21008.36</v>
+        <v>11261.919999999998</v>
       </c>
       <c r="AA120" s="21">
         <f t="shared" si="184"/>
-        <v>21008.36</v>
+        <v>11261.919999999998</v>
       </c>
       <c r="AB120" s="20">
         <f t="shared" si="184"/>
-        <v>105041.79999999999</v>
+        <v>56309.599999999991</v>
       </c>
       <c r="AC120" s="1" t="s">
         <v>10</v>
@@ -12664,27 +13876,27 @@
       </c>
       <c r="W121" s="62">
         <f t="shared" si="185"/>
-        <v>50159.114666666661</v>
+        <v>27236.133333333331</v>
       </c>
       <c r="X121" s="62">
         <f t="shared" si="185"/>
-        <v>50159.114666666661</v>
+        <v>27236.133333333331</v>
       </c>
       <c r="Y121" s="62">
         <f t="shared" si="185"/>
-        <v>50159.114666666661</v>
+        <v>27236.133333333331</v>
       </c>
       <c r="Z121" s="62">
         <f t="shared" si="185"/>
-        <v>50159.114666666661</v>
+        <v>27236.133333333331</v>
       </c>
       <c r="AA121" s="62">
         <f t="shared" si="185"/>
-        <v>50159.114666666661</v>
+        <v>27236.133333333331</v>
       </c>
       <c r="AB121" s="62">
         <f t="shared" si="185"/>
-        <v>250795.57333333333</v>
+        <v>136180.66666666666</v>
       </c>
       <c r="AC121" s="5" t="s">
         <v>19</v>
@@ -12712,7 +13924,7 @@
       </c>
       <c r="R124" s="62">
         <f t="shared" ref="R124:AB124" si="186">R24+R77+R86+R95+R121</f>
-        <v>16955292.199999999</v>
+        <v>9251389</v>
       </c>
       <c r="S124" s="62">
         <f t="shared" si="186"/>
@@ -12732,27 +13944,27 @@
       </c>
       <c r="W124" s="62">
         <f t="shared" si="186"/>
-        <v>911105.44799999986</v>
+        <v>502316.79999999993</v>
       </c>
       <c r="X124" s="62">
         <f t="shared" si="186"/>
-        <v>3529711.8480000007</v>
+        <v>1928836</v>
       </c>
       <c r="Y124" s="62">
         <f t="shared" si="186"/>
-        <v>3529711.8480000007</v>
+        <v>1928836</v>
       </c>
       <c r="Z124" s="62">
         <f t="shared" si="186"/>
-        <v>3742984.8880000003</v>
+        <v>2047692.6000000003</v>
       </c>
       <c r="AA124" s="62">
         <f t="shared" si="186"/>
-        <v>3742984.8880000003</v>
+        <v>2047692.6000000003</v>
       </c>
       <c r="AB124" s="62">
         <f t="shared" si="186"/>
-        <v>32411791.120000001</v>
+        <v>17706763</v>
       </c>
       <c r="AC124" s="5" t="s">
         <v>19</v>
@@ -12764,27 +13976,27 @@
       </c>
       <c r="W125" s="62">
         <f>R124+W124</f>
-        <v>17866397.647999998</v>
+        <v>9753705.8000000007</v>
       </c>
       <c r="X125" s="62">
         <f t="shared" ref="X125:AA125" si="187">S124+X124</f>
-        <v>3529711.8480000007</v>
+        <v>1928836</v>
       </c>
       <c r="Y125" s="62">
         <f t="shared" si="187"/>
-        <v>3529711.8480000007</v>
+        <v>1928836</v>
       </c>
       <c r="Z125" s="62">
         <f t="shared" si="187"/>
-        <v>3742984.8880000003</v>
+        <v>2047692.6000000003</v>
       </c>
       <c r="AA125" s="62">
         <f t="shared" si="187"/>
-        <v>3742984.8880000003</v>
+        <v>2047692.6000000003</v>
       </c>
       <c r="AB125" s="62">
         <f>SUM(W125:AA125)</f>
-        <v>32411791.120000001</v>
+        <v>17706763</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.3">
@@ -12793,23 +14005,23 @@
       </c>
       <c r="W126" s="62">
         <f>W125</f>
-        <v>17866397.647999998</v>
+        <v>9753705.8000000007</v>
       </c>
       <c r="X126" s="62">
         <f>W126+X125</f>
-        <v>21396109.495999999</v>
+        <v>11682541.800000001</v>
       </c>
       <c r="Y126" s="62">
         <f t="shared" ref="Y126:AA126" si="188">X126+Y125</f>
-        <v>24925821.344000001</v>
+        <v>13611377.800000001</v>
       </c>
       <c r="Z126" s="62">
         <f t="shared" si="188"/>
-        <v>28668806.232000001</v>
+        <v>15659070.4</v>
       </c>
       <c r="AA126" s="62">
         <f t="shared" si="188"/>
-        <v>32411791.120000001</v>
+        <v>17706763</v>
       </c>
     </row>
   </sheetData>
@@ -12830,10 +14042,10 @@
   <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -12863,20 +14075,20 @@
       <c r="H1" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="173" t="s">
+      <c r="R1" s="168" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="173" t="s">
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="169"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="175"/>
+      <c r="X1" s="169"/>
+      <c r="Y1" s="169"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="170"/>
       <c r="AB1" s="1" t="s">
         <v>65</v>
       </c>
@@ -13125,24 +14337,24 @@
       </c>
       <c r="C10" s="5">
         <f>sizing!D5</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>132</v>
       </c>
       <c r="E10" s="144">
         <f>sizing!F5</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F10" s="150">
         <f>ROUNDUP(E10,0)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G10" s="75"/>
       <c r="H10" s="75"/>
       <c r="I10" s="151">
         <f>F10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>6</v>
@@ -13160,15 +14372,15 @@
       </c>
       <c r="P10" s="84">
         <f>Q10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="84">
         <f>SUM(F10:G10)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R10" s="52">
         <f>$K10*($F$16+$G$16)*(1-$G$5)</f>
-        <v>1540000</v>
+        <v>840000</v>
       </c>
       <c r="S10" s="52"/>
       <c r="T10" s="52"/>
@@ -13188,15 +14400,15 @@
       </c>
       <c r="Z10" s="52">
         <f t="shared" si="0"/>
-        <v>154000</v>
+        <v>84000</v>
       </c>
       <c r="AA10" s="52">
         <f t="shared" si="0"/>
-        <v>154000</v>
+        <v>84000</v>
       </c>
       <c r="AB10" s="56">
         <f>SUM(R10:AA10)</f>
-        <v>1848000</v>
+        <v>1008000</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>6</v>
@@ -13212,11 +14424,11 @@
       </c>
       <c r="E11" s="144">
         <f>ROUNDUP($C$10*D11,0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11" s="150">
         <f>E11</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G11" s="75">
         <f>E11-F11</f>
@@ -13240,15 +14452,15 @@
       </c>
       <c r="P11" s="84">
         <f>Q11</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="84">
         <f>SUM(F11:G11)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R11" s="52">
         <f>$K11*($F$16+$G$16)*(1-$G$5)</f>
-        <v>770000</v>
+        <v>420000</v>
       </c>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
@@ -13268,15 +14480,15 @@
       </c>
       <c r="Z11" s="52">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>42000</v>
       </c>
       <c r="AA11" s="52">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>42000</v>
       </c>
       <c r="AB11" s="20">
         <f>SUM(R11:AA11)</f>
-        <v>924000</v>
+        <v>504000</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>7</v>
@@ -13292,7 +14504,7 @@
       </c>
       <c r="E12" s="144">
         <f>ROUNDUP($C$10*D12,0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12" s="150">
         <f>E12-G12</f>
@@ -13300,7 +14512,7 @@
       </c>
       <c r="G12" s="75">
         <f>E12</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H12" s="75"/>
       <c r="I12" s="151"/>
@@ -13320,15 +14532,15 @@
       </c>
       <c r="P12" s="84">
         <f>Q12</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q12" s="84">
         <f>SUM(F12:G12)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R12" s="52">
         <f>$K12*($F$16+$G$16)*(1-$G$5)</f>
-        <v>770000</v>
+        <v>420000</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
@@ -13348,15 +14560,15 @@
       </c>
       <c r="Z12" s="52">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>42000</v>
       </c>
       <c r="AA12" s="52">
         <f t="shared" si="0"/>
-        <v>77000</v>
+        <v>42000</v>
       </c>
       <c r="AB12" s="20">
         <f>SUM(R12:AA12)</f>
-        <v>924000</v>
+        <v>504000</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>8</v>
@@ -13372,16 +14584,16 @@
       </c>
       <c r="E13" s="144">
         <f>ROUNDUP($C$10*D13,0)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F13" s="152"/>
       <c r="G13" s="153">
         <f>C10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H13" s="153">
         <f>G13</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I13" s="154"/>
       <c r="J13" s="14" t="s">
@@ -13400,15 +14612,15 @@
       </c>
       <c r="P13" s="84">
         <f>Q13</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="84">
         <f>SUM(F13:G13)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R13" s="52">
         <f>$K13*($F$16+$G$16)*(1-$G$5)</f>
-        <v>1540000</v>
+        <v>840000</v>
       </c>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
@@ -13428,15 +14640,15 @@
       </c>
       <c r="Z13" s="52">
         <f t="shared" si="0"/>
-        <v>154000</v>
+        <v>84000</v>
       </c>
       <c r="AA13" s="52">
         <f t="shared" si="0"/>
-        <v>154000</v>
+        <v>84000</v>
       </c>
       <c r="AB13" s="20">
         <f>SUM(R13:AA13)</f>
-        <v>1848000</v>
+        <v>1008000</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>9</v>
@@ -13450,11 +14662,11 @@
       <c r="G14" s="145"/>
       <c r="H14" s="146">
         <f>SUM(H10:H13)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I14" s="146">
         <f>SUM(I10:I13)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>10</v>
@@ -13468,7 +14680,7 @@
       <c r="Q14" s="84"/>
       <c r="R14" s="52">
         <f>($H$16+$I$16)*(1-$G$5)</f>
-        <v>280000</v>
+        <v>140000</v>
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
@@ -13488,15 +14700,15 @@
       </c>
       <c r="Z14" s="52">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="AA14" s="52">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>14000</v>
       </c>
       <c r="AB14" s="20">
         <f>SUM(R14:AA14)</f>
-        <v>336000</v>
+        <v>168000</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>10</v>
@@ -13509,23 +14721,23 @@
       <c r="C15" s="39"/>
       <c r="E15" s="78">
         <f>SUM(E10:E14)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F15" s="78">
         <f>SUM(F10:F14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G15" s="78">
         <f>SUM(G10:G14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H15" s="78">
         <f>H14</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I15" s="78">
         <f>I14</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="98">
@@ -13539,15 +14751,15 @@
       </c>
       <c r="P15" s="50">
         <f>SUM(P10:P14)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="50">
         <f>SUM(Q10:Q14)</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="R15" s="71">
         <f t="shared" ref="R15:AB15" si="2">SUM(R10:R14)</f>
-        <v>4900000</v>
+        <v>2660000</v>
       </c>
       <c r="S15" s="71">
         <f t="shared" si="2"/>
@@ -13579,15 +14791,15 @@
       </c>
       <c r="Z15" s="71">
         <f t="shared" si="2"/>
-        <v>490000</v>
+        <v>266000</v>
       </c>
       <c r="AA15" s="71">
         <f t="shared" si="2"/>
-        <v>490000</v>
+        <v>266000</v>
       </c>
       <c r="AB15" s="71">
         <f t="shared" si="2"/>
-        <v>5880000</v>
+        <v>3192000</v>
       </c>
       <c r="AC15" s="5" t="s">
         <v>19</v>
@@ -13599,19 +14811,19 @@
       </c>
       <c r="F16" s="99">
         <f>IF($D$5&lt;F15,((F15-$D$5)*$E$5+$C$5),$C$5)</f>
-        <v>3300000</v>
+        <v>1800000</v>
       </c>
       <c r="G16" s="99">
         <f>IF($D$5&lt;G15,((G15-$D$5)*$E$5+$C$5),$C$5)</f>
-        <v>3300000</v>
+        <v>1800000</v>
       </c>
       <c r="H16" s="99">
         <f>($H$15*$F$5)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I16" s="99">
         <f>($I$15*$F$5)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="O16" s="18" t="s">
         <v>17</v>
@@ -13772,26 +14984,26 @@
       </c>
       <c r="K24" s="36">
         <f>$P$10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L24" s="36">
         <f>$Q$10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O24">
         <f>_xlfn.XLOOKUP($H24,$J$23:$L$23,$J24:$L24)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q24" s="86">
         <f>I24*O24</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R24" s="19">
         <f t="shared" ref="R24:R30" si="3">$Q24*$C24*(1-$F24)</f>
-        <v>108080</v>
+        <v>54040</v>
       </c>
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
@@ -13811,15 +15023,15 @@
       </c>
       <c r="Z24" s="19">
         <f t="shared" si="4"/>
-        <v>21616</v>
+        <v>10808</v>
       </c>
       <c r="AA24" s="19">
         <f t="shared" si="4"/>
-        <v>21616</v>
+        <v>10808</v>
       </c>
       <c r="AB24" s="20">
         <f>SUM(R24:AA24)</f>
-        <v>151312</v>
+        <v>75656</v>
       </c>
     </row>
     <row r="25" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -13855,22 +15067,22 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" ref="K25:L30" si="5">K24</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O25">
         <f t="shared" ref="O25:O30" si="6">_xlfn.XLOOKUP($H25,$J$23:$L$23,$J25:$L25)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q25" s="86">
         <f t="shared" ref="Q25:Q30" si="7">I25*O25</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R25" s="19">
         <f t="shared" si="3"/>
@@ -13938,26 +15150,26 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O26">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q26" s="86">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R26" s="19">
         <f t="shared" si="3"/>
-        <v>1193200</v>
+        <v>596600</v>
       </c>
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
@@ -13969,23 +15181,23 @@
       </c>
       <c r="X26" s="19">
         <f t="shared" si="4"/>
-        <v>238640</v>
+        <v>119320</v>
       </c>
       <c r="Y26" s="19">
         <f t="shared" si="4"/>
-        <v>238640</v>
+        <v>119320</v>
       </c>
       <c r="Z26" s="19">
         <f t="shared" si="4"/>
-        <v>238640</v>
+        <v>119320</v>
       </c>
       <c r="AA26" s="19">
         <f t="shared" si="4"/>
-        <v>238640</v>
+        <v>119320</v>
       </c>
       <c r="AB26" s="20">
         <f t="shared" si="8"/>
-        <v>2147760</v>
+        <v>1073880</v>
       </c>
     </row>
     <row r="27" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14021,26 +15233,26 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q27" s="86">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R27" s="19">
         <f t="shared" si="3"/>
-        <v>1619560</v>
+        <v>809780</v>
       </c>
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
@@ -14052,23 +15264,23 @@
       </c>
       <c r="X27" s="19">
         <f t="shared" si="4"/>
-        <v>323912</v>
+        <v>161956</v>
       </c>
       <c r="Y27" s="19">
         <f t="shared" si="4"/>
-        <v>323912</v>
+        <v>161956</v>
       </c>
       <c r="Z27" s="19">
         <f t="shared" si="4"/>
-        <v>323912</v>
+        <v>161956</v>
       </c>
       <c r="AA27" s="19">
         <f t="shared" si="4"/>
-        <v>323912</v>
+        <v>161956</v>
       </c>
       <c r="AB27" s="20">
         <f>SUM(R27:AA27)</f>
-        <v>2915208</v>
+        <v>1457604</v>
       </c>
     </row>
     <row r="28" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14103,26 +15315,26 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O28">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q28" s="86">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R28" s="19">
         <f t="shared" si="3"/>
-        <v>596600</v>
+        <v>298300</v>
       </c>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
@@ -14130,27 +15342,27 @@
       <c r="V28" s="19"/>
       <c r="W28" s="19">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="X28" s="19">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="Y28" s="19">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="Z28" s="19">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="AA28" s="19">
         <f t="shared" si="4"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="AB28" s="20">
         <f>SUM(R28:AA28)</f>
-        <v>1196600</v>
+        <v>598300</v>
       </c>
     </row>
     <row r="29" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14186,11 +15398,11 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O29">
         <f t="shared" si="6"/>
@@ -14269,11 +15481,11 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O30">
         <f t="shared" si="6"/>
@@ -14325,7 +15537,7 @@
       </c>
       <c r="R31" s="61">
         <f>SUM(R24:R30)</f>
-        <v>3521440</v>
+        <v>1762720</v>
       </c>
       <c r="S31" s="61">
         <f t="shared" ref="S31:AB31" si="11">SUM(S24:S30)</f>
@@ -14345,27 +15557,27 @@
       </c>
       <c r="W31" s="61">
         <f t="shared" si="11"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="X31" s="61">
         <f t="shared" si="11"/>
-        <v>683352</v>
+        <v>342076</v>
       </c>
       <c r="Y31" s="61">
         <f t="shared" si="11"/>
-        <v>683352</v>
+        <v>342076</v>
       </c>
       <c r="Z31" s="61">
         <f t="shared" si="11"/>
-        <v>704968</v>
+        <v>352884</v>
       </c>
       <c r="AA31" s="61">
         <f t="shared" si="11"/>
-        <v>704968</v>
+        <v>352884</v>
       </c>
       <c r="AB31" s="62">
         <f t="shared" si="11"/>
-        <v>6418080</v>
+        <v>3212640</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -14489,26 +15701,26 @@
       </c>
       <c r="K34" s="36">
         <f>$P$11</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L34" s="36">
         <f>$Q$11</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O34">
         <f>_xlfn.XLOOKUP($H34,$J$23:$L$23,$J34:$L34)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q34" s="86">
         <f>I34*O34</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R34" s="19">
         <f t="shared" ref="R34:R40" si="14">$Q34*$C34*(1-$F34)</f>
-        <v>54040</v>
+        <v>27020</v>
       </c>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
@@ -14528,15 +15740,15 @@
       </c>
       <c r="Z34" s="19">
         <f t="shared" si="15"/>
-        <v>10808</v>
+        <v>5404</v>
       </c>
       <c r="AA34" s="19">
         <f t="shared" si="15"/>
-        <v>10808</v>
+        <v>5404</v>
       </c>
       <c r="AB34" s="20">
         <f>SUM(R34:AA34)</f>
-        <v>75656</v>
+        <v>37828</v>
       </c>
     </row>
     <row r="35" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14579,22 +15791,22 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" ref="K35:L40" si="18">K34</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O35">
         <f t="shared" ref="O35:O40" si="19">_xlfn.XLOOKUP($H35,$J$23:$L$23,$J35:$L35)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P35" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q35" s="86">
         <f t="shared" ref="Q35:Q40" si="20">I35*O35</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R35" s="19">
         <f t="shared" si="14"/>
@@ -14669,26 +15881,26 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O36">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>94</v>
       </c>
       <c r="Q36" s="86">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R36" s="19">
         <f t="shared" si="14"/>
-        <v>596600</v>
+        <v>298300</v>
       </c>
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
@@ -14700,23 +15912,23 @@
       </c>
       <c r="X36" s="19">
         <f t="shared" si="15"/>
-        <v>119320</v>
+        <v>59660</v>
       </c>
       <c r="Y36" s="19">
         <f t="shared" si="15"/>
-        <v>119320</v>
+        <v>59660</v>
       </c>
       <c r="Z36" s="19">
         <f t="shared" si="15"/>
-        <v>119320</v>
+        <v>59660</v>
       </c>
       <c r="AA36" s="19">
         <f t="shared" si="15"/>
-        <v>119320</v>
+        <v>59660</v>
       </c>
       <c r="AB36" s="20">
         <f t="shared" si="21"/>
-        <v>1073880</v>
+        <v>536940</v>
       </c>
     </row>
     <row r="37" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14759,26 +15971,26 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O37">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P37" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="86">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R37" s="19">
         <f t="shared" si="14"/>
-        <v>809780</v>
+        <v>404890</v>
       </c>
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
@@ -14790,23 +16002,23 @@
       </c>
       <c r="X37" s="19">
         <f t="shared" si="15"/>
-        <v>161956</v>
+        <v>80978</v>
       </c>
       <c r="Y37" s="19">
         <f t="shared" si="15"/>
-        <v>161956</v>
+        <v>80978</v>
       </c>
       <c r="Z37" s="19">
         <f t="shared" si="15"/>
-        <v>161956</v>
+        <v>80978</v>
       </c>
       <c r="AA37" s="19">
         <f t="shared" si="15"/>
-        <v>161956</v>
+        <v>80978</v>
       </c>
       <c r="AB37" s="20">
         <f>SUM(R37:AA37)</f>
-        <v>1457604</v>
+        <v>728802</v>
       </c>
     </row>
     <row r="38" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14849,26 +16061,26 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O38">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P38" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="86">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R38" s="19">
         <f t="shared" si="14"/>
-        <v>298300</v>
+        <v>149150</v>
       </c>
       <c r="S38" s="19"/>
       <c r="T38" s="19"/>
@@ -14876,27 +16088,27 @@
       <c r="V38" s="19"/>
       <c r="W38" s="19">
         <f t="shared" si="15"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="X38" s="19">
         <f t="shared" si="15"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Y38" s="19">
         <f t="shared" si="15"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Z38" s="19">
         <f t="shared" si="15"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="AA38" s="19">
         <f t="shared" si="15"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="AB38" s="20">
         <f>SUM(R38:AA38)</f>
-        <v>598300</v>
+        <v>299150</v>
       </c>
     </row>
     <row r="39" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -14939,11 +16151,11 @@
       </c>
       <c r="K39" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O39">
         <f t="shared" si="19"/>
@@ -15029,11 +16241,11 @@
       </c>
       <c r="K40" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O40">
         <f t="shared" si="19"/>
@@ -15085,7 +16297,7 @@
       </c>
       <c r="R41" s="61">
         <f>SUM(R34:R40)</f>
-        <v>1760720</v>
+        <v>881360</v>
       </c>
       <c r="S41" s="61">
         <f t="shared" ref="S41:AB41" si="29">SUM(S34:S40)</f>
@@ -15105,27 +16317,27 @@
       </c>
       <c r="W41" s="61">
         <f t="shared" si="29"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="X41" s="61">
         <f t="shared" si="29"/>
-        <v>341676</v>
+        <v>171038</v>
       </c>
       <c r="Y41" s="61">
         <f t="shared" si="29"/>
-        <v>341676</v>
+        <v>171038</v>
       </c>
       <c r="Z41" s="61">
         <f t="shared" si="29"/>
-        <v>352484</v>
+        <v>176442</v>
       </c>
       <c r="AA41" s="61">
         <f t="shared" si="29"/>
-        <v>352484</v>
+        <v>176442</v>
       </c>
       <c r="AB41" s="62">
         <f t="shared" si="29"/>
-        <v>3209040</v>
+        <v>1606320</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -15247,26 +16459,26 @@
       </c>
       <c r="K44" s="36">
         <f>$P$12</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L44" s="36">
         <f>$Q$12</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O44">
         <f>_xlfn.XLOOKUP($H44,$J$23:$L$23,$J44:$L44)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P44" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q44" s="86">
         <f>I44*O44</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R44" s="19">
         <f t="shared" ref="R44:R50" si="32">$Q44*$C44*(1-$F44)</f>
-        <v>54040</v>
+        <v>27020</v>
       </c>
       <c r="S44" s="19"/>
       <c r="T44" s="19"/>
@@ -15286,15 +16498,15 @@
       </c>
       <c r="Z44" s="19">
         <f t="shared" si="33"/>
-        <v>10808</v>
+        <v>5404</v>
       </c>
       <c r="AA44" s="19">
         <f t="shared" si="33"/>
-        <v>10808</v>
+        <v>5404</v>
       </c>
       <c r="AB44" s="20">
         <f>SUM(R44:AA44)</f>
-        <v>75656</v>
+        <v>37828</v>
       </c>
     </row>
     <row r="45" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -15337,22 +16549,22 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" ref="K45:L50" si="35">K44</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O45">
         <f t="shared" ref="O45:O50" si="36">_xlfn.XLOOKUP($H45,$J$23:$L$23,$J45:$L45)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q45" s="86">
         <f t="shared" ref="Q45:Q50" si="37">I45*O45</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R45" s="19">
         <f t="shared" si="32"/>
@@ -15427,26 +16639,26 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O46">
         <f t="shared" si="36"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P46" s="10" t="s">
         <v>94</v>
       </c>
       <c r="Q46" s="86">
         <f t="shared" si="37"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R46" s="19">
         <f t="shared" si="32"/>
-        <v>596600</v>
+        <v>298300</v>
       </c>
       <c r="S46" s="19"/>
       <c r="T46" s="19"/>
@@ -15458,23 +16670,23 @@
       </c>
       <c r="X46" s="19">
         <f t="shared" si="33"/>
-        <v>119320</v>
+        <v>59660</v>
       </c>
       <c r="Y46" s="19">
         <f t="shared" si="33"/>
-        <v>119320</v>
+        <v>59660</v>
       </c>
       <c r="Z46" s="19">
         <f t="shared" si="33"/>
-        <v>119320</v>
+        <v>59660</v>
       </c>
       <c r="AA46" s="19">
         <f t="shared" si="33"/>
-        <v>119320</v>
+        <v>59660</v>
       </c>
       <c r="AB46" s="20">
         <f t="shared" si="38"/>
-        <v>1073880</v>
+        <v>536940</v>
       </c>
     </row>
     <row r="47" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -15517,26 +16729,26 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O47">
         <f t="shared" si="36"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P47" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q47" s="86">
         <f t="shared" si="37"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R47" s="19">
         <f t="shared" si="32"/>
-        <v>809780</v>
+        <v>404890</v>
       </c>
       <c r="S47" s="19"/>
       <c r="T47" s="19"/>
@@ -15548,23 +16760,23 @@
       </c>
       <c r="X47" s="19">
         <f t="shared" si="33"/>
-        <v>161956</v>
+        <v>80978</v>
       </c>
       <c r="Y47" s="19">
         <f t="shared" si="33"/>
-        <v>161956</v>
+        <v>80978</v>
       </c>
       <c r="Z47" s="19">
         <f t="shared" si="33"/>
-        <v>161956</v>
+        <v>80978</v>
       </c>
       <c r="AA47" s="19">
         <f t="shared" si="33"/>
-        <v>161956</v>
+        <v>80978</v>
       </c>
       <c r="AB47" s="20">
         <f>SUM(R47:AA47)</f>
-        <v>1457604</v>
+        <v>728802</v>
       </c>
     </row>
     <row r="48" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -15607,26 +16819,26 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O48">
         <f t="shared" si="36"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P48" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q48" s="86">
         <f t="shared" si="37"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R48" s="19">
         <f t="shared" si="32"/>
-        <v>298300</v>
+        <v>149150</v>
       </c>
       <c r="S48" s="19"/>
       <c r="T48" s="19"/>
@@ -15634,27 +16846,27 @@
       <c r="V48" s="19"/>
       <c r="W48" s="19">
         <f t="shared" si="33"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="X48" s="19">
         <f t="shared" si="33"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Y48" s="19">
         <f t="shared" si="33"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="Z48" s="19">
         <f t="shared" si="33"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="AA48" s="19">
         <f t="shared" si="33"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="AB48" s="20">
         <f>SUM(R48:AA48)</f>
-        <v>598300</v>
+        <v>299150</v>
       </c>
     </row>
     <row r="49" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -15697,11 +16909,11 @@
       </c>
       <c r="K49" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O49">
         <f t="shared" si="36"/>
@@ -15787,11 +16999,11 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="35"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O50">
         <f t="shared" si="36"/>
@@ -15843,7 +17055,7 @@
       </c>
       <c r="R51" s="61">
         <f>SUM(R44:R50)</f>
-        <v>1760720</v>
+        <v>881360</v>
       </c>
       <c r="S51" s="61">
         <f t="shared" ref="S51:AB51" si="46">SUM(S44:S50)</f>
@@ -15863,27 +17075,27 @@
       </c>
       <c r="W51" s="61">
         <f t="shared" si="46"/>
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="X51" s="61">
         <f t="shared" si="46"/>
-        <v>341676</v>
+        <v>171038</v>
       </c>
       <c r="Y51" s="61">
         <f t="shared" si="46"/>
-        <v>341676</v>
+        <v>171038</v>
       </c>
       <c r="Z51" s="61">
         <f t="shared" si="46"/>
-        <v>352484</v>
+        <v>176442</v>
       </c>
       <c r="AA51" s="61">
         <f t="shared" si="46"/>
-        <v>352484</v>
+        <v>176442</v>
       </c>
       <c r="AB51" s="62">
         <f t="shared" si="46"/>
-        <v>3209040</v>
+        <v>1606320</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -16005,26 +17217,26 @@
       </c>
       <c r="K54" s="36">
         <f>$P$13</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L54" s="36">
         <f>$Q$13</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O54">
         <f>_xlfn.XLOOKUP($H54,$J$23:$L$23,$J54:$L54)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P54" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q54" s="86">
         <f>I54*O54</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R54" s="19">
         <f t="shared" ref="R54:R60" si="49">$Q54*$C54*(1-$F54)</f>
-        <v>108080</v>
+        <v>54040</v>
       </c>
       <c r="S54" s="19"/>
       <c r="T54" s="19"/>
@@ -16044,15 +17256,15 @@
       </c>
       <c r="Z54" s="19">
         <f t="shared" si="50"/>
-        <v>21616</v>
+        <v>10808</v>
       </c>
       <c r="AA54" s="19">
         <f t="shared" si="50"/>
-        <v>21616</v>
+        <v>10808</v>
       </c>
       <c r="AB54" s="20">
         <f>SUM(R54:AA54)</f>
-        <v>151312</v>
+        <v>75656</v>
       </c>
     </row>
     <row r="55" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -16095,22 +17307,22 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" ref="K55:L60" si="52">K54</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O55">
         <f t="shared" ref="O55:O60" si="53">_xlfn.XLOOKUP($H55,$J$23:$L$23,$J55:$L55)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P55" s="10" t="s">
         <v>30</v>
       </c>
       <c r="Q55" s="86">
         <f t="shared" ref="Q55:Q60" si="54">I55*O55</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R55" s="19">
         <f t="shared" si="49"/>
@@ -16185,26 +17397,26 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O56">
         <f t="shared" si="53"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>94</v>
       </c>
       <c r="Q56" s="86">
         <f t="shared" si="54"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R56" s="19">
         <f t="shared" si="49"/>
-        <v>1193200</v>
+        <v>596600</v>
       </c>
       <c r="S56" s="19"/>
       <c r="T56" s="19"/>
@@ -16216,23 +17428,23 @@
       </c>
       <c r="X56" s="19">
         <f t="shared" si="50"/>
-        <v>238640</v>
+        <v>119320</v>
       </c>
       <c r="Y56" s="19">
         <f t="shared" si="50"/>
-        <v>238640</v>
+        <v>119320</v>
       </c>
       <c r="Z56" s="19">
         <f t="shared" si="50"/>
-        <v>238640</v>
+        <v>119320</v>
       </c>
       <c r="AA56" s="19">
         <f t="shared" si="50"/>
-        <v>238640</v>
+        <v>119320</v>
       </c>
       <c r="AB56" s="20">
         <f t="shared" si="55"/>
-        <v>2147760</v>
+        <v>1073880</v>
       </c>
     </row>
     <row r="57" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -16275,26 +17487,26 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O57">
         <f t="shared" si="53"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P57" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q57" s="86">
         <f t="shared" si="54"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R57" s="19">
         <f t="shared" si="49"/>
-        <v>1619560</v>
+        <v>809780</v>
       </c>
       <c r="S57" s="19"/>
       <c r="T57" s="19"/>
@@ -16306,23 +17518,23 @@
       </c>
       <c r="X57" s="19">
         <f t="shared" si="50"/>
-        <v>323912</v>
+        <v>161956</v>
       </c>
       <c r="Y57" s="19">
         <f t="shared" si="50"/>
-        <v>323912</v>
+        <v>161956</v>
       </c>
       <c r="Z57" s="19">
         <f t="shared" si="50"/>
-        <v>323912</v>
+        <v>161956</v>
       </c>
       <c r="AA57" s="19">
         <f t="shared" si="50"/>
-        <v>323912</v>
+        <v>161956</v>
       </c>
       <c r="AB57" s="20">
         <f>SUM(R57:AA57)</f>
-        <v>2915208</v>
+        <v>1457604</v>
       </c>
     </row>
     <row r="58" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -16365,26 +17577,26 @@
       </c>
       <c r="K58" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O58">
         <f t="shared" si="53"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P58" s="10" t="s">
         <v>31</v>
       </c>
       <c r="Q58" s="86">
         <f t="shared" si="54"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="R58" s="19">
         <f t="shared" si="49"/>
-        <v>596600</v>
+        <v>298300</v>
       </c>
       <c r="S58" s="19"/>
       <c r="T58" s="19"/>
@@ -16392,27 +17604,27 @@
       <c r="V58" s="19"/>
       <c r="W58" s="19">
         <f t="shared" si="50"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="X58" s="19">
         <f t="shared" si="50"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="Y58" s="19">
         <f t="shared" si="50"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="Z58" s="19">
         <f t="shared" si="50"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="AA58" s="19">
         <f t="shared" si="50"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="AB58" s="20">
         <f>SUM(R58:AA58)</f>
-        <v>1196600</v>
+        <v>598300</v>
       </c>
     </row>
     <row r="59" spans="1:29" outlineLevel="2" x14ac:dyDescent="0.3">
@@ -16455,11 +17667,11 @@
       </c>
       <c r="K59" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O59">
         <f t="shared" si="53"/>
@@ -16545,11 +17757,11 @@
       </c>
       <c r="K60" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="52"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O60">
         <f t="shared" si="53"/>
@@ -16601,7 +17813,7 @@
       </c>
       <c r="R61" s="61">
         <f>SUM(R54:R60)</f>
-        <v>3521440</v>
+        <v>1762720</v>
       </c>
       <c r="S61" s="61">
         <f t="shared" ref="S61:AB61" si="63">SUM(S54:S60)</f>
@@ -16621,27 +17833,27 @@
       </c>
       <c r="W61" s="61">
         <f t="shared" si="63"/>
-        <v>120000</v>
+        <v>60000</v>
       </c>
       <c r="X61" s="61">
         <f t="shared" si="63"/>
-        <v>683352</v>
+        <v>342076</v>
       </c>
       <c r="Y61" s="61">
         <f t="shared" si="63"/>
-        <v>683352</v>
+        <v>342076</v>
       </c>
       <c r="Z61" s="61">
         <f t="shared" si="63"/>
-        <v>704968</v>
+        <v>352884</v>
       </c>
       <c r="AA61" s="61">
         <f t="shared" si="63"/>
-        <v>704968</v>
+        <v>352884</v>
       </c>
       <c r="AB61" s="62">
         <f t="shared" si="63"/>
-        <v>6418080</v>
+        <v>3212640</v>
       </c>
     </row>
     <row r="62" spans="1:29" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -17410,7 +18622,7 @@
       <c r="P73" s="8"/>
       <c r="R73" s="62">
         <f>R31+R41+R51+R61+R71</f>
-        <v>10564320</v>
+        <v>5288160</v>
       </c>
       <c r="S73" s="62">
         <f t="shared" ref="S73:AB73" si="81">S31+S41+S51+S61+S71</f>
@@ -17430,27 +18642,27 @@
       </c>
       <c r="W73" s="62">
         <f t="shared" si="81"/>
-        <v>360000</v>
+        <v>180000</v>
       </c>
       <c r="X73" s="62">
         <f t="shared" si="81"/>
-        <v>2050056</v>
+        <v>1026228</v>
       </c>
       <c r="Y73" s="62">
         <f t="shared" si="81"/>
-        <v>2050056</v>
+        <v>1026228</v>
       </c>
       <c r="Z73" s="62">
         <f t="shared" si="81"/>
-        <v>2114904</v>
+        <v>1058652</v>
       </c>
       <c r="AA73" s="62">
         <f t="shared" si="81"/>
-        <v>2114904</v>
+        <v>1058652</v>
       </c>
       <c r="AB73" s="62">
         <f t="shared" si="81"/>
-        <v>19254240</v>
+        <v>9637920</v>
       </c>
       <c r="AC73" s="5" t="s">
         <v>19</v>
@@ -18667,7 +19879,7 @@
       </c>
       <c r="P104" s="42">
         <f>$D$107*O104</f>
-        <v>27663.15789473684</v>
+        <v>13831.57894736842</v>
       </c>
       <c r="R104" s="19"/>
       <c r="S104" s="19"/>
@@ -18676,27 +19888,27 @@
       <c r="V104" s="19"/>
       <c r="W104" s="19">
         <f>$P104*$D$104</f>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="X104" s="19">
         <f t="shared" ref="X104:AA104" si="95">$P104*$D$104</f>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="Y104" s="19">
         <f t="shared" si="95"/>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="Z104" s="19">
         <f t="shared" si="95"/>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="AA104" s="19">
         <f t="shared" si="95"/>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="AB104" s="20">
         <f>SUM(R104:AA104)</f>
-        <v>8298.9473684210516</v>
+        <v>4149.4736842105258</v>
       </c>
       <c r="AC104" s="1" t="s">
         <v>6</v>
@@ -18731,7 +19943,7 @@
       </c>
       <c r="P105" s="42">
         <f>$D$107*O105</f>
-        <v>13831.57894736842</v>
+        <v>6915.78947368421</v>
       </c>
       <c r="R105" s="19"/>
       <c r="S105" s="19"/>
@@ -18740,27 +19952,27 @@
       <c r="V105" s="19"/>
       <c r="W105" s="19">
         <f t="shared" ref="W105:AA108" si="96">$P105*$D$104</f>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="X105" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="Y105" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="Z105" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="AA105" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="AB105" s="20">
         <f t="shared" ref="AB105:AB108" si="97">SUM(R105:AA105)</f>
-        <v>4149.4736842105258</v>
+        <v>2074.7368421052629</v>
       </c>
       <c r="AC105" s="1" t="s">
         <v>7</v>
@@ -18775,7 +19987,7 @@
       </c>
       <c r="D106" s="101">
         <f>(K107*K105)</f>
-        <v>4.7368421052631575</v>
+        <v>2.3684210526315788</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="1"/>
@@ -18788,7 +20000,7 @@
       </c>
       <c r="P106" s="42">
         <f>$D$107*O106</f>
-        <v>13831.57894736842</v>
+        <v>6915.78947368421</v>
       </c>
       <c r="R106" s="19"/>
       <c r="S106" s="19"/>
@@ -18797,27 +20009,27 @@
       <c r="V106" s="19"/>
       <c r="W106" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="X106" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="Y106" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="Z106" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="AA106" s="19">
         <f t="shared" si="96"/>
-        <v>829.8947368421052</v>
+        <v>414.9473684210526</v>
       </c>
       <c r="AB106" s="20">
         <f t="shared" si="97"/>
-        <v>4149.4736842105258</v>
+        <v>2074.7368421052629</v>
       </c>
       <c r="AC106" s="1" t="s">
         <v>8</v>
@@ -18832,14 +20044,14 @@
       </c>
       <c r="D107" s="102">
         <f>$D$106*24*365</f>
-        <v>41494.73684210526</v>
+        <v>20747.36842105263</v>
       </c>
       <c r="I107" s="14" t="s">
         <v>153</v>
       </c>
       <c r="K107" s="33">
         <f>F15</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N107" s="14" t="s">
         <v>9</v>
@@ -18850,7 +20062,7 @@
       </c>
       <c r="P107" s="42">
         <f>$D$107*O107</f>
-        <v>27663.15789473684</v>
+        <v>13831.57894736842</v>
       </c>
       <c r="R107" s="19"/>
       <c r="S107" s="19"/>
@@ -18859,27 +20071,27 @@
       <c r="V107" s="19"/>
       <c r="W107" s="19">
         <f t="shared" si="96"/>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="X107" s="19">
         <f t="shared" si="96"/>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="Y107" s="19">
         <f t="shared" si="96"/>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="Z107" s="19">
         <f t="shared" si="96"/>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="AA107" s="19">
         <f t="shared" si="96"/>
-        <v>1659.7894736842104</v>
+        <v>829.8947368421052</v>
       </c>
       <c r="AB107" s="20">
         <f t="shared" si="97"/>
-        <v>8298.9473684210516</v>
+        <v>4149.4736842105258</v>
       </c>
       <c r="AC107" s="1" t="s">
         <v>9</v>
@@ -18939,7 +20151,7 @@
       </c>
       <c r="P109" s="66">
         <f>SUM(P104:P108)</f>
-        <v>82989.473684210519</v>
+        <v>41494.73684210526</v>
       </c>
       <c r="R109" s="61">
         <f t="shared" ref="R109:AB109" si="98">SUM(R104:R108)</f>
@@ -18963,27 +20175,27 @@
       </c>
       <c r="W109" s="61">
         <f t="shared" si="98"/>
-        <v>4979.3684210526317</v>
+        <v>2489.6842105263158</v>
       </c>
       <c r="X109" s="61">
         <f t="shared" si="98"/>
-        <v>4979.3684210526317</v>
+        <v>2489.6842105263158</v>
       </c>
       <c r="Y109" s="61">
         <f t="shared" si="98"/>
-        <v>4979.3684210526317</v>
+        <v>2489.6842105263158</v>
       </c>
       <c r="Z109" s="61">
         <f t="shared" si="98"/>
-        <v>4979.3684210526317</v>
+        <v>2489.6842105263158</v>
       </c>
       <c r="AA109" s="61">
         <f t="shared" si="98"/>
-        <v>4979.3684210526317</v>
+        <v>2489.6842105263158</v>
       </c>
       <c r="AB109" s="62">
         <f t="shared" si="98"/>
-        <v>24896.842105263153</v>
+        <v>12448.421052631576</v>
       </c>
       <c r="AC109" s="5" t="s">
         <v>19</v>
@@ -19149,27 +20361,27 @@
       </c>
       <c r="W121" s="21">
         <f t="shared" si="99"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="X121" s="21">
         <f t="shared" si="99"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="Y121" s="21">
         <f t="shared" si="99"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="Z121" s="21">
         <f t="shared" si="99"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="AA121" s="21">
         <f t="shared" si="99"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="AB121" s="20">
         <f t="shared" si="99"/>
-        <v>32565.614035087725</v>
+        <v>28416.140350877198</v>
       </c>
       <c r="AC121" s="1" t="s">
         <v>6</v>
@@ -19201,27 +20413,27 @@
       </c>
       <c r="W122" s="21">
         <f t="shared" si="100"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="X122" s="21">
         <f t="shared" si="100"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="Y122" s="21">
         <f t="shared" si="100"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="Z122" s="21">
         <f t="shared" si="100"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="AA122" s="21">
         <f t="shared" si="100"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="AB122" s="20">
         <f>AB96+AB105+AB114</f>
-        <v>16282.807017543862</v>
+        <v>14208.070175438599</v>
       </c>
       <c r="AC122" s="1" t="s">
         <v>7</v>
@@ -19253,27 +20465,27 @@
       </c>
       <c r="W123" s="21">
         <f t="shared" si="101"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="X123" s="21">
         <f t="shared" si="101"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="Y123" s="21">
         <f t="shared" si="101"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="Z123" s="21">
         <f t="shared" si="101"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="AA123" s="21">
         <f t="shared" si="101"/>
-        <v>3256.5614035087719</v>
+        <v>2841.6140350877195</v>
       </c>
       <c r="AB123" s="20">
         <f t="shared" si="101"/>
-        <v>16282.807017543862</v>
+        <v>14208.070175438599</v>
       </c>
       <c r="AC123" s="1" t="s">
         <v>8</v>
@@ -19305,27 +20517,27 @@
       </c>
       <c r="W124" s="21">
         <f t="shared" si="102"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="X124" s="21">
         <f t="shared" si="102"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="Y124" s="21">
         <f t="shared" si="102"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="Z124" s="21">
         <f t="shared" si="102"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="AA124" s="21">
         <f t="shared" si="102"/>
-        <v>6513.1228070175439</v>
+        <v>5683.2280701754389</v>
       </c>
       <c r="AB124" s="20">
         <f t="shared" si="102"/>
-        <v>32565.614035087725</v>
+        <v>28416.140350877198</v>
       </c>
       <c r="AC124" s="1" t="s">
         <v>9</v>
@@ -19409,27 +20621,27 @@
       </c>
       <c r="W126" s="62">
         <f t="shared" si="104"/>
-        <v>19539.368421052633</v>
+        <v>17049.684210526317</v>
       </c>
       <c r="X126" s="62">
         <f t="shared" si="104"/>
-        <v>19539.368421052633</v>
+        <v>17049.684210526317</v>
       </c>
       <c r="Y126" s="62">
         <f t="shared" si="104"/>
-        <v>19539.368421052633</v>
+        <v>17049.684210526317</v>
       </c>
       <c r="Z126" s="62">
         <f t="shared" si="104"/>
-        <v>19539.368421052633</v>
+        <v>17049.684210526317</v>
       </c>
       <c r="AA126" s="62">
         <f t="shared" si="104"/>
-        <v>19539.368421052633</v>
+        <v>17049.684210526317</v>
       </c>
       <c r="AB126" s="62">
         <f t="shared" si="104"/>
-        <v>97696.842105263175</v>
+        <v>85248.421052631587</v>
       </c>
       <c r="AC126" s="5" t="s">
         <v>19</v>
@@ -19457,7 +20669,7 @@
       </c>
       <c r="R129" s="62">
         <f t="shared" ref="R129:AB129" si="105">R15+R73+R82+R91+R126</f>
-        <v>15483920</v>
+        <v>7967760</v>
       </c>
       <c r="S129" s="62">
         <f t="shared" si="105"/>
@@ -19477,27 +20689,27 @@
       </c>
       <c r="W129" s="62">
         <f t="shared" si="105"/>
-        <v>399539.36842105264</v>
+        <v>217049.68421052632</v>
       </c>
       <c r="X129" s="62">
         <f t="shared" si="105"/>
-        <v>2091555.3684210526</v>
+        <v>1065237.6842105263</v>
       </c>
       <c r="Y129" s="62">
         <f t="shared" si="105"/>
-        <v>2091555.3684210526</v>
+        <v>1065237.6842105263</v>
       </c>
       <c r="Z129" s="62">
         <f t="shared" si="105"/>
-        <v>2646403.3684210526</v>
+        <v>1363661.6842105263</v>
       </c>
       <c r="AA129" s="62">
         <f t="shared" si="105"/>
-        <v>2646403.3684210526</v>
+        <v>1363661.6842105263</v>
       </c>
       <c r="AB129" s="62">
         <f t="shared" si="105"/>
-        <v>25359376.842105262</v>
+        <v>13042608.421052631</v>
       </c>
       <c r="AC129" s="5" t="s">
         <v>19</v>
@@ -19509,27 +20721,27 @@
       </c>
       <c r="W130" s="62">
         <f>R129+W129</f>
-        <v>15883459.368421054</v>
+        <v>8184809.6842105268</v>
       </c>
       <c r="X130" s="62">
         <f t="shared" ref="X130:AA130" si="106">S129+X129</f>
-        <v>2091555.3684210526</v>
+        <v>1065237.6842105263</v>
       </c>
       <c r="Y130" s="62">
         <f t="shared" si="106"/>
-        <v>2091555.3684210526</v>
+        <v>1065237.6842105263</v>
       </c>
       <c r="Z130" s="62">
         <f t="shared" si="106"/>
-        <v>2646403.3684210526</v>
+        <v>1363661.6842105263</v>
       </c>
       <c r="AA130" s="62">
         <f t="shared" si="106"/>
-        <v>2646403.3684210526</v>
+        <v>1363661.6842105263</v>
       </c>
       <c r="AB130" s="62">
         <f>SUM(W130:AA130)</f>
-        <v>25359376.842105262</v>
+        <v>13042608.421052631</v>
       </c>
     </row>
     <row r="131" spans="16:29" x14ac:dyDescent="0.3">
@@ -19538,23 +20750,23 @@
       </c>
       <c r="W131" s="62">
         <f>W130</f>
-        <v>15883459.368421054</v>
+        <v>8184809.6842105268</v>
       </c>
       <c r="X131" s="62">
         <f>W131+X130</f>
-        <v>17975014.736842107</v>
+        <v>9250047.3684210535</v>
       </c>
       <c r="Y131" s="62">
         <f t="shared" ref="Y131:AA131" si="107">X131+Y130</f>
-        <v>20066570.105263159</v>
+        <v>10315285.052631579</v>
       </c>
       <c r="Z131" s="62">
         <f t="shared" si="107"/>
-        <v>22712973.47368421</v>
+        <v>11678946.736842105</v>
       </c>
       <c r="AA131" s="62">
         <f t="shared" si="107"/>
-        <v>25359376.842105262</v>
+        <v>13042608.421052631</v>
       </c>
     </row>
   </sheetData>
@@ -19572,13 +20784,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView zoomScale="77" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19601,7 +20813,7 @@
       </c>
       <c r="C1" s="123">
         <f>sizing!C2</f>
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="D1" t="s">
         <v>212</v>
@@ -19611,32 +20823,32 @@
       <c r="B3" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
       <c r="H3" s="41"/>
       <c r="K3" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="176" t="s">
+      <c r="L3" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
+      <c r="M3" s="171"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="171"/>
+      <c r="P3" s="171"/>
       <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178" t="str">
+      <c r="A4" s="173" t="str">
         <f>'x86 TCO'!A5</f>
         <v>R1-XES08ef	S68813  w Xeon Gold 6126  12C 2.60Ghz (2 Chips, 24 Cores, 128GB total RAM 2666Mhz)</v>
       </c>
-      <c r="B4" s="178"/>
+      <c r="B4" s="173"/>
       <c r="C4" s="105" t="s">
         <v>6</v>
       </c>
@@ -19675,7 +20887,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="177" t="s">
+      <c r="A5" s="172" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -19683,29 +20895,29 @@
       </c>
       <c r="C5" s="124">
         <f>'x86 TCO'!AB19</f>
-        <v>171508.68</v>
+        <v>104810.85999999999</v>
       </c>
       <c r="D5" s="68">
         <f>'x86 TCO'!AB20</f>
-        <v>85754.34</v>
+        <v>47641.3</v>
       </c>
       <c r="E5" s="68">
         <f>'x86 TCO'!AB21</f>
-        <v>85754.34</v>
+        <v>47641.3</v>
       </c>
       <c r="F5" s="68">
         <f>'x86 TCO'!AB22</f>
-        <v>161980.41999999998</v>
+        <v>85754.34</v>
       </c>
       <c r="G5" s="68">
         <f>'x86 TCO'!AB23</f>
-        <v>333489.09999999998</v>
+        <v>190565.2</v>
       </c>
       <c r="H5" s="69">
         <f>SUM(C5:G5)</f>
-        <v>838486.87999999989</v>
-      </c>
-      <c r="J5" s="177" t="s">
+        <v>476412.99999999994</v>
+      </c>
+      <c r="J5" s="172" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -19713,77 +20925,77 @@
       </c>
       <c r="L5" s="124">
         <f>'LinuxONE TCO'!AB10</f>
-        <v>1848000</v>
+        <v>1008000</v>
       </c>
       <c r="M5" s="68">
         <f>'LinuxONE TCO'!AB11</f>
-        <v>924000</v>
+        <v>504000</v>
       </c>
       <c r="N5" s="68">
         <f>'LinuxONE TCO'!AB12</f>
-        <v>924000</v>
+        <v>504000</v>
       </c>
       <c r="O5" s="68">
         <f>'LinuxONE TCO'!AB13</f>
-        <v>1848000</v>
+        <v>1008000</v>
       </c>
       <c r="P5" s="68">
         <f>'LinuxONE TCO'!AB14</f>
-        <v>336000</v>
+        <v>168000</v>
       </c>
       <c r="Q5" s="69">
         <f t="shared" ref="Q5:Q10" si="0">SUM(L5:P5)</f>
-        <v>5880000</v>
+        <v>3192000</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="177"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="140">
         <f>'x86 TCO'!AB35</f>
-        <v>6083784</v>
+        <v>3554274</v>
       </c>
       <c r="D6" s="68">
         <f>'x86 TCO'!AB45</f>
-        <v>2878298</v>
+        <v>1526346</v>
       </c>
       <c r="E6" s="68">
         <f>'x86 TCO'!AB55</f>
-        <v>2878298</v>
+        <v>1526346</v>
       </c>
       <c r="F6" s="68">
         <f>'x86 TCO'!AB65</f>
-        <v>5745796</v>
+        <v>2878298</v>
       </c>
       <c r="G6" s="68">
         <f>'x86 TCO'!AB75</f>
-        <v>11665986</v>
+        <v>6432572</v>
       </c>
       <c r="H6" s="69">
         <f>SUM(C6:G6)</f>
-        <v>29252162</v>
-      </c>
-      <c r="J6" s="177"/>
+        <v>15917836</v>
+      </c>
+      <c r="J6" s="172"/>
       <c r="K6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L6" s="140">
         <f>'LinuxONE TCO'!AB31</f>
-        <v>6418080</v>
+        <v>3212640</v>
       </c>
       <c r="M6" s="68">
         <f>'LinuxONE TCO'!AB41</f>
-        <v>3209040</v>
+        <v>1606320</v>
       </c>
       <c r="N6" s="68">
         <f>'LinuxONE TCO'!AB51</f>
-        <v>3209040</v>
+        <v>1606320</v>
       </c>
       <c r="O6" s="68">
         <f>'LinuxONE TCO'!AB61</f>
-        <v>6418080</v>
+        <v>3212640</v>
       </c>
       <c r="P6" s="68">
         <f>'LinuxONE TCO'!AB71</f>
@@ -19791,73 +21003,73 @@
       </c>
       <c r="Q6" s="69">
         <f t="shared" si="0"/>
-        <v>19254240</v>
+        <v>9637920</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="177"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="179">
+      <c r="C7" s="174">
         <f>'x86 TCO'!AB86</f>
-        <v>1466666.6666666665</v>
-      </c>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="181"/>
+        <v>833333.33333333326</v>
+      </c>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="176"/>
       <c r="H7" s="69">
         <f t="shared" ref="H7" si="1">SUM(C7:G7)</f>
-        <v>1466666.6666666665</v>
-      </c>
-      <c r="J7" s="177"/>
+        <v>833333.33333333326</v>
+      </c>
+      <c r="J7" s="172"/>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="179">
+      <c r="L7" s="174">
         <f>'LinuxONE TCO'!AB82</f>
         <v>100000</v>
       </c>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="181"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="176"/>
       <c r="Q7" s="69">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="177"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="68">
         <f>'x86 TCO'!AB90</f>
-        <v>123480</v>
+        <v>75460</v>
       </c>
       <c r="D8" s="68">
         <f>'x86 TCO'!AB91</f>
-        <v>61740</v>
+        <v>34300</v>
       </c>
       <c r="E8" s="68">
         <f>'x86 TCO'!AB92</f>
-        <v>61740</v>
+        <v>34300</v>
       </c>
       <c r="F8" s="68">
         <f>'x86 TCO'!AB93</f>
-        <v>116620</v>
+        <v>61740</v>
       </c>
       <c r="G8" s="68">
         <f>'x86 TCO'!AB94</f>
-        <v>240100</v>
+        <v>137200</v>
       </c>
       <c r="H8" s="69">
         <f>SUM(C8:G8)</f>
-        <v>603680</v>
-      </c>
-      <c r="J8" s="177"/>
+        <v>343000</v>
+      </c>
+      <c r="J8" s="172"/>
       <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
@@ -19887,35 +21099,35 @@
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177"/>
+      <c r="A9" s="172"/>
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="68">
         <f>'x86 TCO'!AB99</f>
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="D9" s="68">
         <f>'x86 TCO'!AB100</f>
-        <v>10140</v>
+        <v>5633.3333333333339</v>
       </c>
       <c r="E9" s="68">
         <f>'x86 TCO'!AB101</f>
-        <v>10140</v>
+        <v>5633.3333333333339</v>
       </c>
       <c r="F9" s="68">
         <f>'x86 TCO'!AB102</f>
-        <v>19153.333333333336</v>
+        <v>10140</v>
       </c>
       <c r="G9" s="68">
         <f>'x86 TCO'!AB103</f>
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="H9" s="69">
         <f>SUM(C9:G9)</f>
-        <v>117433.33333333334</v>
-      </c>
-      <c r="J9" s="177"/>
+        <v>60406.666666666672</v>
+      </c>
+      <c r="J9" s="172"/>
       <c r="K9" s="2" t="s">
         <v>46</v>
       </c>
@@ -19945,53 +21157,53 @@
       </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="68">
         <f>'x86 TCO'!AB108</f>
-        <v>27278.639999999996</v>
+        <v>16670.28</v>
       </c>
       <c r="D10" s="68">
         <f>'x86 TCO'!AB109</f>
-        <v>13639.319999999998</v>
+        <v>7577.3999999999987</v>
       </c>
       <c r="E10" s="68">
         <f>'x86 TCO'!AB110</f>
-        <v>13639.319999999998</v>
+        <v>7577.3999999999987</v>
       </c>
       <c r="F10" s="68">
         <f>'x86 TCO'!AB111</f>
-        <v>25763.159999999993</v>
+        <v>13639.319999999998</v>
       </c>
       <c r="G10" s="68">
         <f>'x86 TCO'!AB112</f>
-        <v>53041.799999999996</v>
+        <v>30309.599999999995</v>
       </c>
       <c r="H10" s="69">
         <f>SUM(C10:G10)</f>
-        <v>133362.23999999999</v>
-      </c>
-      <c r="J10" s="177"/>
+        <v>75773.999999999985</v>
+      </c>
+      <c r="J10" s="172"/>
       <c r="K10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L10" s="68">
         <f>'LinuxONE TCO'!AB104</f>
-        <v>8298.9473684210516</v>
+        <v>4149.4736842105258</v>
       </c>
       <c r="M10" s="68">
         <f>'LinuxONE TCO'!AB105</f>
-        <v>4149.4736842105258</v>
+        <v>2074.7368421052629</v>
       </c>
       <c r="N10" s="68">
         <f>'LinuxONE TCO'!AB106</f>
-        <v>4149.4736842105258</v>
+        <v>2074.7368421052629</v>
       </c>
       <c r="O10" s="68">
         <f>'LinuxONE TCO'!AB107</f>
-        <v>8298.9473684210516</v>
+        <v>4149.4736842105258</v>
       </c>
       <c r="P10" s="68">
         <f>'LinuxONE TCO'!AB108</f>
@@ -19999,7 +21211,7 @@
       </c>
       <c r="Q10" s="69">
         <f t="shared" si="0"/>
-        <v>24896.842105263153</v>
+        <v>12448.421052631576</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -20008,54 +21220,54 @@
       </c>
       <c r="C11" s="90">
         <f t="shared" ref="C11:H11" si="2">SUM(C5:C10)</f>
-        <v>7898717.9866666654</v>
+        <v>4597548.4733333336</v>
       </c>
       <c r="D11" s="90">
         <f t="shared" si="2"/>
-        <v>3049571.6599999997</v>
+        <v>1621498.0333333332</v>
       </c>
       <c r="E11" s="90">
         <f t="shared" si="2"/>
-        <v>3049571.6599999997</v>
+        <v>1621498.0333333332</v>
       </c>
       <c r="F11" s="90">
         <f t="shared" si="2"/>
-        <v>6069312.9133333331</v>
+        <v>3049571.6599999997</v>
       </c>
       <c r="G11" s="90">
         <f t="shared" si="2"/>
-        <v>12344616.9</v>
+        <v>6816646.7999999998</v>
       </c>
       <c r="H11" s="141">
         <f t="shared" si="2"/>
-        <v>32411791.119999997</v>
+        <v>17706763</v>
       </c>
       <c r="K11" s="89" t="s">
         <v>110</v>
       </c>
       <c r="L11" s="90">
         <f t="shared" ref="L11:Q11" si="3">SUM(L5:L10)</f>
-        <v>8407792.2807017546</v>
+        <v>4358202.8070175443</v>
       </c>
       <c r="M11" s="90">
         <f t="shared" si="3"/>
-        <v>4153896.1403508773</v>
+        <v>2129101.4035087721</v>
       </c>
       <c r="N11" s="90">
         <f t="shared" si="3"/>
-        <v>4153896.1403508773</v>
+        <v>2129101.4035087721</v>
       </c>
       <c r="O11" s="90">
         <f t="shared" si="3"/>
-        <v>8307792.2807017546</v>
+        <v>4258202.8070175443</v>
       </c>
       <c r="P11" s="90">
         <f t="shared" si="3"/>
-        <v>336000</v>
+        <v>168000</v>
       </c>
       <c r="Q11" s="141">
         <f t="shared" si="3"/>
-        <v>25359376.842105262</v>
+        <v>13042608.421052631</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -20064,7 +21276,7 @@
       </c>
       <c r="Q12" s="160">
         <f>(H11-Q11)/H11</f>
-        <v>0.21758792199370239</v>
+        <v>0.26341091135332689</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -20097,15 +21309,15 @@
       </c>
       <c r="B16" s="70">
         <f>SUM(C5:F5)</f>
-        <v>504997.77999999997</v>
+        <v>285847.79999999993</v>
       </c>
       <c r="C16" s="70">
         <f>SUM(C6:F6)</f>
-        <v>17586176</v>
+        <v>9485264</v>
       </c>
       <c r="D16" s="70">
         <f>SUM(C7:F7)</f>
-        <v>1466666.6666666665</v>
+        <v>833333.33333333326</v>
       </c>
       <c r="E16" s="70" t="e">
         <f>SUM(#REF!)</f>
@@ -20117,7 +21329,7 @@
       </c>
       <c r="G16" s="70">
         <f>G11</f>
-        <v>12344616.9</v>
+        <v>6816646.7999999998</v>
       </c>
       <c r="H16" s="103" t="e">
         <f>SUM(B16:G16)</f>
@@ -20131,11 +21343,11 @@
       </c>
       <c r="B17" s="70">
         <f>SUM(L5:O5)</f>
-        <v>5544000</v>
+        <v>3024000</v>
       </c>
       <c r="C17" s="70">
         <f>SUM(L6:O6)</f>
-        <v>19254240</v>
+        <v>9637920</v>
       </c>
       <c r="D17" s="70">
         <f>SUM(L7:O7)</f>
@@ -20151,7 +21363,7 @@
       </c>
       <c r="G17" s="70">
         <f>P11</f>
-        <v>336000</v>
+        <v>168000</v>
       </c>
       <c r="H17" s="103" t="e">
         <f>SUM(B17:G17)</f>
@@ -20185,23 +21397,23 @@
       </c>
       <c r="C20" s="88">
         <f>'x86 TCO'!W126</f>
-        <v>17866397.647999998</v>
+        <v>9753705.8000000007</v>
       </c>
       <c r="D20" s="88">
         <f>'x86 TCO'!X126</f>
-        <v>21396109.495999999</v>
+        <v>11682541.800000001</v>
       </c>
       <c r="E20" s="88">
         <f>'x86 TCO'!Y126</f>
-        <v>24925821.344000001</v>
+        <v>13611377.800000001</v>
       </c>
       <c r="F20" s="88">
         <f>'x86 TCO'!Z126</f>
-        <v>28668806.232000001</v>
+        <v>15659070.4</v>
       </c>
       <c r="G20" s="88">
         <f>'x86 TCO'!AA126</f>
-        <v>32411791.120000001</v>
+        <v>17706763</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -20211,23 +21423,23 @@
       </c>
       <c r="C21" s="88">
         <f>'LinuxONE TCO'!W131</f>
-        <v>15883459.368421054</v>
+        <v>8184809.6842105268</v>
       </c>
       <c r="D21" s="88">
         <f>'LinuxONE TCO'!X131</f>
-        <v>17975014.736842107</v>
+        <v>9250047.3684210535</v>
       </c>
       <c r="E21" s="88">
         <f>'LinuxONE TCO'!Y131</f>
-        <v>20066570.105263159</v>
+        <v>10315285.052631579</v>
       </c>
       <c r="F21" s="88">
         <f>'LinuxONE TCO'!Z131</f>
-        <v>22712973.47368421</v>
+        <v>11678946.736842105</v>
       </c>
       <c r="G21" s="88">
         <f>'LinuxONE TCO'!AA131</f>
-        <v>25359376.842105262</v>
+        <v>13042608.421052631</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -20250,36 +21462,287 @@
       </c>
       <c r="C32" s="68">
         <f>'x86 TCO'!R24</f>
-        <v>598919.19999999995</v>
+        <v>340295</v>
       </c>
       <c r="D32" s="68">
         <f>'x86 TCO'!R35</f>
-        <v>3312036</v>
+        <v>1935021</v>
       </c>
       <c r="E32" s="70">
         <f>SUM(C32:D32)</f>
-        <v>3910955.2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+        <v>2275316</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="39" t="s">
         <v>142</v>
       </c>
       <c r="C33" s="68">
         <f>'LinuxONE TCO'!R15</f>
-        <v>4900000</v>
+        <v>2660000</v>
       </c>
       <c r="D33" s="68">
         <f>'LinuxONE TCO'!R31</f>
-        <v>3521440</v>
+        <v>1762720</v>
       </c>
       <c r="E33" s="70">
         <f>SUM(C33:D33)</f>
-        <v>8421440</v>
+        <v>4422720</v>
       </c>
       <c r="F33" s="125">
         <f>E33/E32</f>
-        <v>2.1532949290751273</v>
+        <v>1.9437827536922343</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="178"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37" s="141">
+        <v>1283166.44</v>
+      </c>
+      <c r="E37" s="141">
+        <v>1880157.894736842</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <f>C37+50</f>
+        <v>150</v>
+      </c>
+      <c r="D38" s="141">
+        <v>1446760.44</v>
+      </c>
+      <c r="E38" s="141">
+        <v>1880157.894736842</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <f t="shared" ref="C39:C46" si="4">C38+50</f>
+        <v>200</v>
+      </c>
+      <c r="D39" s="141">
+        <v>1610354.44</v>
+      </c>
+      <c r="E39" s="141">
+        <v>1880157.894736842</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="D40" s="141">
+        <v>2191877.2533333329</v>
+      </c>
+      <c r="E40" s="141">
+        <v>2209516.8421052634</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="D41" s="141">
+        <v>2191877.2533333329</v>
+      </c>
+      <c r="E41" s="141">
+        <v>2209516.8421052634</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="D42" s="141">
+        <v>2355471.2533333334</v>
+      </c>
+      <c r="E42" s="141">
+        <v>2209516.8421052634</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="D43" s="141">
+        <v>2519065.2533333334</v>
+      </c>
+      <c r="E43" s="141">
+        <v>2209516.8421052634</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="D44" s="141">
+        <v>2682659.2533333334</v>
+      </c>
+      <c r="E44" s="141">
+        <v>2859834.7368421052</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f>C44+50</f>
+        <v>500</v>
+      </c>
+      <c r="D45" s="141">
+        <v>3683237.5466666664</v>
+      </c>
+      <c r="E45" s="141">
+        <v>2859834.7368421052</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="D46" s="141">
+        <v>3683237.5466666664</v>
+      </c>
+      <c r="E46" s="141">
+        <v>2859834.7368421052</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <f>C46+50</f>
+        <v>600</v>
+      </c>
+      <c r="D47" s="141">
+        <v>3846831.5466666664</v>
+      </c>
+      <c r="E47" s="141">
+        <v>2859834.7368421052</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="141">
+        <v>6339896.7999999998</v>
+      </c>
+      <c r="E49" s="141">
+        <v>4007511.5789473685</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <f>C49+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="D50" s="141">
+        <v>10082987.533333335</v>
+      </c>
+      <c r="E50" s="141">
+        <v>6884224.2105263155</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <f t="shared" ref="C51:C56" si="5">C50+1000</f>
+        <v>3000</v>
+      </c>
+      <c r="D51" s="141">
+        <v>13813078.266666666</v>
+      </c>
+      <c r="E51" s="141">
+        <v>10165895.789473685</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="D52" s="141">
+        <v>17706763</v>
+      </c>
+      <c r="E52" s="141">
+        <v>13042608.421052631</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="D53" s="141">
+        <v>21462853.733333334</v>
+      </c>
+      <c r="E53" s="141">
+        <v>16324280</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="D54" s="141">
+        <v>25192944.466666669</v>
+      </c>
+      <c r="E54" s="141">
+        <v>19200992.631578948</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>7000</v>
+      </c>
+      <c r="D55" s="141">
+        <v>29413817.199999999</v>
+      </c>
+      <c r="E55" s="141">
+        <v>22482664.210526317</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="D56" s="141">
+        <v>33156907.93333333</v>
+      </c>
+      <c r="E56" s="141">
+        <v>25359376.842105262</v>
       </c>
     </row>
   </sheetData>
@@ -20301,151 +21764,443 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB81E716-26A8-47B6-AB83-002A4BF17E71}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>214</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="M1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" s="170">
+      <c r="B2" s="141">
         <v>1283166.44</v>
       </c>
-      <c r="C2" s="169">
+      <c r="C2" s="141">
         <v>1880157.894736842</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="141">
+        <v>6339896.7999999998</v>
+      </c>
+      <c r="O2" s="141">
+        <v>4007511.5789473685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
+        <f>A2+50</f>
         <v>150</v>
       </c>
-      <c r="B3" s="170">
+      <c r="B3" s="141">
         <v>1446760.44</v>
       </c>
-      <c r="C3" s="169">
+      <c r="C3" s="141">
         <v>1880157.894736842</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <f>M2+1000</f>
+        <v>2000</v>
+      </c>
+      <c r="N3" s="141">
+        <v>10082987.533333335</v>
+      </c>
+      <c r="O3" s="141">
+        <v>6884224.2105263155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">A3+50</f>
         <v>200</v>
       </c>
-      <c r="B4" s="170">
+      <c r="B4" s="141">
         <v>1610354.44</v>
       </c>
-      <c r="C4" s="169">
+      <c r="C4" s="141">
         <v>1880157.894736842</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <f t="shared" ref="M4:M9" si="1">M3+1000</f>
+        <v>3000</v>
+      </c>
+      <c r="N4" s="141">
+        <v>13813078.266666666</v>
+      </c>
+      <c r="O4" s="141">
+        <v>10165895.789473685</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="B5" s="170">
+      <c r="B5" s="141">
         <v>2191877.2533333329</v>
       </c>
-      <c r="C5" s="169">
+      <c r="C5" s="141">
         <v>2209516.8421052634</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="N5" s="141">
+        <v>17706763</v>
+      </c>
+      <c r="O5" s="141">
+        <v>13042608.421052631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="B6" s="170">
+      <c r="B6" s="141">
         <v>2191877.2533333329</v>
       </c>
-      <c r="C6" s="169">
+      <c r="C6" s="141">
         <v>2209516.8421052634</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="N6" s="141">
+        <v>21462853.733333334</v>
+      </c>
+      <c r="O6" s="141">
+        <v>16324280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="B7" s="169">
+      <c r="B7" s="141">
         <v>2355471.2533333334</v>
       </c>
-      <c r="C7" s="170">
+      <c r="C7" s="141">
         <v>2209516.8421052634</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="N7" s="141">
+        <v>25192944.466666669</v>
+      </c>
+      <c r="O7" s="141">
+        <v>19200992.631578948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="B8" s="169">
+      <c r="B8" s="141">
         <v>2519065.2533333334</v>
       </c>
-      <c r="C8" s="170">
+      <c r="C8" s="141">
         <v>2209516.8421052634</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="N8" s="141">
+        <v>29413817.199999999</v>
+      </c>
+      <c r="O8" s="141">
+        <v>22482664.210526317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="B9" s="170">
+      <c r="B9" s="141">
         <v>2682659.2533333334</v>
       </c>
-      <c r="C9" s="168">
+      <c r="C9" s="141">
         <v>2859834.7368421052</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="N9" s="141">
+        <v>33156907.93333333</v>
+      </c>
+      <c r="O9" s="141">
+        <v>25359376.842105262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
+        <f>A9+50</f>
         <v>500</v>
       </c>
-      <c r="B10" s="169">
+      <c r="B10" s="141">
         <v>3683237.5466666664</v>
       </c>
-      <c r="C10" s="170">
+      <c r="C10" s="141">
         <v>2859834.7368421052</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="B11" s="171">
+      <c r="B11" s="141">
         <v>3683237.5466666664</v>
       </c>
-      <c r="C11" s="172">
+      <c r="C11" s="141">
         <v>2859834.7368421052</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
+        <f>A11+50</f>
         <v>600</v>
       </c>
-      <c r="B12" s="169">
-        <v>3683237.5466666664</v>
-      </c>
-      <c r="C12" s="170">
+      <c r="B12" s="141">
+        <v>3846831.5466666664</v>
+      </c>
+      <c r="C12" s="141">
         <v>2859834.7368421052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" t="s">
+        <v>219</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20">
+        <f>'x86 TCO'!G19</f>
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <f>'x86 TCO'!G20</f>
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>'x86 TCO'!G21</f>
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f>'x86 TCO'!G22</f>
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20">
+        <f>'x86 TCO'!G23</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21">
+        <f>'x86 TCO'!E19</f>
+        <v>248</v>
+      </c>
+      <c r="C21">
+        <f>'x86 TCO'!E20</f>
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <f>'x86 TCO'!E21</f>
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <f>'x86 TCO'!E22</f>
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21">
+        <f>'x86 TCO'!E23</f>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="177" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B20:E20,H20)</f>
+        <v>50</v>
+      </c>
+      <c r="C22" s="177" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22">
+        <f>SUM(B21:E21,H21)</f>
+        <v>1096</v>
+      </c>
+      <c r="E22" s="177" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22">
+        <f>'x86 TCO'!I24</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26">
+        <f>'LinuxONE TCO'!E10</f>
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <f>'LinuxONE TCO'!E11</f>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f>'LinuxONE TCO'!H13</f>
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <f>'LinuxONE TCO'!G13</f>
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <f>'LinuxONE TCO'!G12</f>
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <f>'LinuxONE TCO'!I10</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27">
+        <f>SUM(B26:C26,G26:H26)</f>
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27">
+        <f>D26+I26</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>